--- a/Vocabularies/ID/id-deq-g.xlsx
+++ b/Vocabularies/ID/id-deq-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Desktop/WSWC/IoW/Vocabularies/ID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustus/Desktop/WSWC/IoW/Vocabularies/ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB9F597-E0A6-9A4F-8ED2-838DB65BD874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E0754-63DB-794B-B7FC-B36835197A03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35200" yWindow="1140" windowWidth="30420" windowHeight="17220" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="882">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Air Pollutant</t>
   </si>
   <si>
-    <t>Air Quality Index (AQI)</t>
-  </si>
-  <si>
     <t>Air Toxics</t>
   </si>
   <si>
@@ -214,9 +211,6 @@
     <t>Aquifer</t>
   </si>
   <si>
-    <t>Area-Wide Optimization Program (AWOP)</t>
-  </si>
-  <si>
     <t>Arsenic</t>
   </si>
   <si>
@@ -226,9 +220,6 @@
     <t>Assemblage (Aquatic)</t>
   </si>
   <si>
-    <t>Assessment Database (ADB)</t>
-  </si>
-  <si>
     <t>Assimilative Capacity</t>
   </si>
   <si>
@@ -253,9 +244,6 @@
     <t>Basin (River Basin)</t>
   </si>
   <si>
-    <t>Basin Advisory Group (BAG)</t>
-  </si>
-  <si>
     <t>Basin Enviromental Improvement Commission</t>
   </si>
   <si>
@@ -268,9 +256,6 @@
     <t>Beneficial Use</t>
   </si>
   <si>
-    <t>Beneficial Use Reconnaissance Program (BURP)</t>
-  </si>
-  <si>
     <t>Benthic</t>
   </si>
   <si>
@@ -280,15 +265,9 @@
     <t>Benthos</t>
   </si>
   <si>
-    <t>Best Management Pracites (BMPs)</t>
-  </si>
-  <si>
     <t>Best Professional Judgment</t>
   </si>
   <si>
-    <t>Biochemical Oxygen Demand (BOD)</t>
-  </si>
-  <si>
     <t>Biological Integrity</t>
   </si>
   <si>
@@ -313,15 +292,9 @@
     <t>Canopy Closure</t>
   </si>
   <si>
-    <t>Carbon Monoxide (CO)</t>
-  </si>
-  <si>
     <t>Cascade</t>
   </si>
   <si>
-    <t>Cathode Ray Tube (CRT)</t>
-  </si>
-  <si>
     <t>Central (Community) Septic System</t>
   </si>
   <si>
@@ -331,12 +304,6 @@
     <t>Chute</t>
   </si>
   <si>
-    <t>Clean Air Act (CAA)</t>
-  </si>
-  <si>
-    <t>Clean Water Act (CWA)</t>
-  </si>
-  <si>
     <t>Cold Water Aquatic Life</t>
   </si>
   <si>
@@ -358,15 +325,6 @@
     <t>Compost</t>
   </si>
   <si>
-    <t>Comprehensive Environmental Response, Compensation and Liability Act (CERCLA or Superfund)</t>
-  </si>
-  <si>
-    <t>Concentrated (Confined) Animal Feeding Operation (CAFO)</t>
-  </si>
-  <si>
-    <t>Conditionally Exempt Small Quantity Generator (of Hazardous Waste) (CESQG)</t>
-  </si>
-  <si>
     <t>Conductivity</t>
   </si>
   <si>
@@ -385,9 +343,6 @@
     <t>Criteria Pollutants</t>
   </si>
   <si>
-    <t>Cubic Feet per Second (cfs)</t>
-  </si>
-  <si>
     <t>Cultural Eutrophication</t>
   </si>
   <si>
@@ -2624,6 +2579,99 @@
   </si>
   <si>
     <t>id-g</t>
+  </si>
+  <si>
+    <t>AF</t>
+  </si>
+  <si>
+    <t>cfs</t>
+  </si>
+  <si>
+    <t>Cubic Feet per Second</t>
+  </si>
+  <si>
+    <t>Conditionally Exempt Small Quantity Generator (of Hazardous Waste)</t>
+  </si>
+  <si>
+    <t>CESQG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentrated (Confined) Animal Feeding Operation </t>
+  </si>
+  <si>
+    <t>CAFO</t>
+  </si>
+  <si>
+    <t>Comprehensive Environmental Response, Compensation and Liability Act</t>
+  </si>
+  <si>
+    <t>CERCLA</t>
+  </si>
+  <si>
+    <t>Clean Water Act</t>
+  </si>
+  <si>
+    <t>CWA</t>
+  </si>
+  <si>
+    <t>Clean Air Act</t>
+  </si>
+  <si>
+    <t>CAA</t>
+  </si>
+  <si>
+    <t>Cathode Ray Tube</t>
+  </si>
+  <si>
+    <t>CRT</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>BOD</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>BURP</t>
+  </si>
+  <si>
+    <t>ADB</t>
+  </si>
+  <si>
+    <t>AWOP</t>
+  </si>
+  <si>
+    <t>AQI</t>
+  </si>
+  <si>
+    <t>Air Quality Index</t>
+  </si>
+  <si>
+    <t>Area-Wide Optimization Program</t>
+  </si>
+  <si>
+    <t>Assessment Database</t>
+  </si>
+  <si>
+    <t>Basin Advisory Group</t>
+  </si>
+  <si>
+    <t>BAG</t>
+  </si>
+  <si>
+    <t>Beneficial Use Reconnaissance Program</t>
+  </si>
+  <si>
+    <t>Best Management Pracites</t>
+  </si>
+  <si>
+    <t>Biochemical Oxygen Demand</t>
+  </si>
+  <si>
+    <t>Carbon Monoxide</t>
   </si>
 </sst>
 </file>
@@ -2644,12 +2692,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2664,12 +2718,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2986,16 +3041,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:M6"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="27.33203125" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="90.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="76.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="20.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -3006,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3032,7 +3088,13 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -3040,7 +3102,13 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>449</v>
+        <v>434</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -3048,7 +3116,13 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>450</v>
+        <v>435</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -3056,7 +3130,16 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>451</v>
+        <v>436</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -3064,15 +3147,24 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>452</v>
+        <v>437</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="B7" s="2" t="s">
+        <v>851</v>
+      </c>
       <c r="C7" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -3080,7 +3172,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3088,7 +3180,13 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -3096,7 +3194,10 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>456</v>
+        <v>441</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3104,7 +3205,13 @@
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>457</v>
+        <v>442</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -3112,7 +3219,13 @@
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>458</v>
+        <v>443</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -3120,7 +3233,13 @@
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -3128,7 +3247,10 @@
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>460</v>
+        <v>445</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -3136,1167 +3258,1532 @@
         <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>461</v>
+        <v>446</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>872</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C17" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D31" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D35" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>870</v>
+      </c>
+      <c r="C36" s="2" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="D36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="D37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2" t="s">
+      <c r="D39" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="D40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="2" t="s">
+      <c r="D42" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
+      <c r="D43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C45" s="2" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="2" t="s">
+      <c r="D45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C46" s="2" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="D46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>478</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2" t="s">
+      <c r="D47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="2" t="s">
+      <c r="D48" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>878</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C36" s="2" t="s">
+      <c r="D50" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="2" t="s">
+      <c r="D51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="2" t="s">
+      <c r="D52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="2" t="s">
+      <c r="D54" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="D55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>880</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="C56" s="2" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="2" t="s">
+      <c r="D56" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="2" t="s">
+      <c r="D57" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" s="2" t="s">
+      <c r="D58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="2" t="s">
+      <c r="D59" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C46" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="D61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E61" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C62" s="2" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C48" s="2" t="s">
+      <c r="D62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C63" s="2" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C49" s="2" t="s">
+      <c r="D63" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="2" t="s">
+      <c r="D64" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="C65" s="2" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C51" s="2" t="s">
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" s="2" t="s">
+      <c r="D66" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>865</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="2" t="s">
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C68" s="2" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C54" s="2" t="s">
+      <c r="D68" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C69" s="2" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C55" s="2" t="s">
+      <c r="D69" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" s="2" t="s">
+      <c r="D70" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>862</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="C71" s="2" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C57" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>860</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>861</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C58" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C59" s="2" t="s">
+      <c r="D73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="2" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="C60" s="2" t="s">
+      <c r="D74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C61" s="2" t="s">
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C62" s="2" t="s">
+      <c r="D76" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C63" s="2" t="s">
+      <c r="D77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C64" s="2" t="s">
+      <c r="D78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C66" s="2" t="s">
+      <c r="D80" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>857</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C68" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C83" s="2" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C69" s="2" t="s">
+      <c r="D83" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="D84" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C85" s="2" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C71" s="2" t="s">
+      <c r="D85" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C72" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C73" s="2" t="s">
+      <c r="D87" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" t="s">
+        <v>23</v>
+      </c>
+      <c r="F87" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C88" s="2" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C74" s="2" t="s">
+      <c r="D88" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E88" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="D89" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C90" s="2" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C91" s="2" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C92" s="2" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C93" s="2" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C94" s="2" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C95" s="2" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C96" s="2" t="s">
         <v>527</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>565</v>
+        <v>550</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>566</v>
+        <v>551</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>567</v>
+        <v>552</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>568</v>
+        <v>553</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>569</v>
+        <v>554</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>570</v>
+        <v>555</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>571</v>
+        <v>556</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>584</v>
+        <v>569</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>585</v>
+        <v>570</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>586</v>
+        <v>571</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>587</v>
+        <v>572</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>588</v>
+        <v>573</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>589</v>
+        <v>574</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>590</v>
+        <v>575</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>591</v>
+        <v>576</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>593</v>
+        <v>578</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>594</v>
+        <v>579</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>595</v>
+        <v>580</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>596</v>
+        <v>581</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>597</v>
+        <v>582</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -4304,1935 +4791,1941 @@
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>607</v>
+        <v>592</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>608</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>609</v>
+        <v>594</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>611</v>
+        <v>596</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>612</v>
+        <v>597</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>613</v>
+        <v>598</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>614</v>
+        <v>599</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>615</v>
+        <v>600</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>616</v>
+        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>617</v>
+        <v>602</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>618</v>
+        <v>603</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>619</v>
+        <v>604</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>620</v>
+        <v>605</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>621</v>
+        <v>606</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>622</v>
+        <v>607</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>623</v>
+        <v>608</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>624</v>
+        <v>609</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>625</v>
+        <v>610</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>626</v>
+        <v>611</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>639</v>
+        <v>624</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>640</v>
+        <v>625</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>641</v>
+        <v>626</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>642</v>
+        <v>627</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>643</v>
+        <v>628</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>644</v>
+        <v>629</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>645</v>
+        <v>630</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>646</v>
+        <v>631</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>647</v>
+        <v>632</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>648</v>
+        <v>633</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>649</v>
+        <v>634</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>650</v>
+        <v>635</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>651</v>
+        <v>636</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>652</v>
+        <v>637</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>654</v>
+        <v>639</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>655</v>
+        <v>640</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>656</v>
+        <v>641</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>657</v>
+        <v>642</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>658</v>
+        <v>643</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>659</v>
+        <v>644</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>660</v>
+        <v>645</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>661</v>
+        <v>646</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>662</v>
+        <v>647</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>663</v>
+        <v>648</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>666</v>
+        <v>651</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>667</v>
+        <v>652</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>668</v>
+        <v>653</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>669</v>
+        <v>654</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>670</v>
+        <v>655</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>671</v>
+        <v>656</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>672</v>
+        <v>657</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>673</v>
+        <v>658</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>674</v>
+        <v>659</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>675</v>
+        <v>660</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>676</v>
+        <v>661</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>677</v>
+        <v>662</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>678</v>
+        <v>663</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>679</v>
+        <v>664</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>680</v>
+        <v>665</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>681</v>
+        <v>666</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>682</v>
+        <v>667</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>683</v>
+        <v>668</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>684</v>
+        <v>669</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>685</v>
+        <v>670</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>686</v>
+        <v>671</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>687</v>
+        <v>672</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>688</v>
+        <v>673</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>689</v>
+        <v>674</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>690</v>
+        <v>675</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>691</v>
+        <v>676</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>692</v>
+        <v>677</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>694</v>
+        <v>679</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>695</v>
+        <v>680</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>696</v>
+        <v>681</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>697</v>
+        <v>682</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>698</v>
+        <v>683</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>699</v>
+        <v>684</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>700</v>
+        <v>685</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>701</v>
+        <v>686</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>703</v>
+        <v>688</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>704</v>
+        <v>689</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>705</v>
+        <v>690</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>706</v>
+        <v>691</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>707</v>
+        <v>692</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>708</v>
+        <v>693</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>709</v>
+        <v>694</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>710</v>
+        <v>695</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="C305" s="2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C306" s="2" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C307" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C308" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A310" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A312" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C312" s="2" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C313" s="2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A314" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C314" s="2" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A315" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C315" s="2" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C316" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C317" s="2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C318" s="2" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="C304" s="2" t="s">
+      <c r="C319" s="2" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A305" s="1" t="s">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A320" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="C305" s="2" t="s">
+      <c r="C320" s="2" t="s">
         <v>750</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A306" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C306" s="2" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A307" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C307" s="2" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A308" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C308" s="2" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A309" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C309" s="2" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A310" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="C310" s="2" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A311" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C311" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A312" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C312" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A313" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C313" s="2" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A314" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C314" s="2" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A315" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C315" s="2" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A316" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="C316" s="2" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A317" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C317" s="2" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A318" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C318" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A319" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C319" s="2" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A320" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C320" s="2" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>774</v>
+        <v>759</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>783</v>
+        <v>768</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>802</v>
+        <v>787</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>803</v>
+        <v>788</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>804</v>
+        <v>789</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>805</v>
+        <v>790</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>806</v>
+        <v>791</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>807</v>
+        <v>792</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>808</v>
+        <v>793</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>809</v>
+        <v>794</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>810</v>
+        <v>795</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>811</v>
+        <v>796</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>812</v>
+        <v>797</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>813</v>
+        <v>798</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>814</v>
+        <v>799</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>815</v>
+        <v>800</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>816</v>
+        <v>801</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>817</v>
+        <v>802</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>818</v>
+        <v>803</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>819</v>
+        <v>804</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>820</v>
+        <v>805</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>821</v>
+        <v>806</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>822</v>
+        <v>807</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>823</v>
+        <v>808</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>824</v>
+        <v>809</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>825</v>
+        <v>810</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>826</v>
+        <v>811</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>827</v>
+        <v>812</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>828</v>
+        <v>813</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>829</v>
+        <v>814</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>830</v>
+        <v>815</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>831</v>
+        <v>816</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>832</v>
+        <v>817</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>833</v>
+        <v>818</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>834</v>
+        <v>819</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>835</v>
+        <v>820</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>836</v>
+        <v>821</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>837</v>
+        <v>822</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>838</v>
+        <v>823</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>839</v>
+        <v>824</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>840</v>
+        <v>825</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>841</v>
+        <v>826</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>843</v>
+        <v>828</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>844</v>
+        <v>829</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -6240,127 +6733,127 @@
         <v>10</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>846</v>
+        <v>831</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>847</v>
+        <v>832</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>848</v>
+        <v>833</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>849</v>
+        <v>834</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>850</v>
+        <v>835</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>851</v>
+        <v>836</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>852</v>
+        <v>837</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>853</v>
+        <v>838</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>854</v>
+        <v>839</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>855</v>
+        <v>840</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>856</v>
+        <v>841</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>857</v>
+        <v>842</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>858</v>
+        <v>843</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>859</v>
+        <v>844</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>653</v>
+        <v>638</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>860</v>
+        <v>845</v>
       </c>
     </row>
   </sheetData>
@@ -6427,19 +6920,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="B2" t="s">
-        <v>864</v>
+        <v>849</v>
       </c>
       <c r="C2" t="s">
-        <v>862</v>
+        <v>847</v>
       </c>
       <c r="D2" t="s">
-        <v>865</v>
+        <v>850</v>
       </c>
       <c r="E2" t="s">
-        <v>863</v>
+        <v>848</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>

--- a/Vocabularies/ID/id-deq-g.xlsx
+++ b/Vocabularies/ID/id-deq-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustus/Desktop/WSWC/IoW/Vocabularies/ID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Library/Containers/com.microsoft.Excel/Data/Desktop/WSWC/IoW/Vocabularies/ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13E0754-63DB-794B-B7FC-B36835197A03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31909EEA-9542-8547-8096-00FCBED8CD99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="883">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -370,9 +370,6 @@
     <t>Discharge</t>
   </si>
   <si>
-    <t>Dissolved Oxygen (DO)</t>
-  </si>
-  <si>
     <t>Disturbance</t>
   </si>
   <si>
@@ -2672,6 +2669,12 @@
   </si>
   <si>
     <t>Carbon Monoxide</t>
+  </si>
+  <si>
+    <t>DO</t>
+  </si>
+  <si>
+    <t>Dissolved Oxygen</t>
   </si>
 </sst>
 </file>
@@ -2718,13 +2721,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3041,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E304" sqref="E304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3062,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3088,7 +3092,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -3102,7 +3106,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3116,7 +3120,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -3130,7 +3134,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -3147,7 +3151,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -3158,10 +3162,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -3172,7 +3176,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3180,7 +3184,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3194,7 +3198,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -3205,7 +3209,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -3219,7 +3223,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -3233,7 +3237,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3247,7 +3251,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -3258,7 +3262,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>
@@ -3266,13 +3270,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -3283,7 +3287,7 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D17" s="3"/>
     </row>
@@ -3292,7 +3296,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -3303,7 +3307,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -3314,7 +3318,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -3325,7 +3329,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -3336,7 +3340,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>19</v>
@@ -3350,7 +3354,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
@@ -3361,7 +3365,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>10</v>
@@ -3372,7 +3376,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -3386,7 +3390,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
@@ -3397,7 +3401,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -3411,7 +3415,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -3422,7 +3426,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -3436,7 +3440,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -3447,7 +3451,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -3455,13 +3459,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -3475,7 +3479,7 @@
         <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
@@ -3486,7 +3490,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>24</v>
@@ -3497,7 +3501,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
@@ -3505,13 +3509,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>24</v>
@@ -3525,7 +3529,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>24</v>
@@ -3539,7 +3543,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
@@ -3550,7 +3554,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>23</v>
@@ -3561,7 +3565,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
@@ -3575,7 +3579,7 @@
         <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D41" s="3"/>
     </row>
@@ -3584,7 +3588,7 @@
         <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -3595,7 +3599,7 @@
         <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -3609,7 +3613,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -3620,13 +3624,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>877</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>23</v>
@@ -3640,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>23</v>
@@ -3654,7 +3658,7 @@
         <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D47" s="3"/>
     </row>
@@ -3663,7 +3667,7 @@
         <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -3677,7 +3681,7 @@
         <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>25</v>
@@ -3685,13 +3689,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>23</v>
@@ -3705,7 +3709,7 @@
         <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -3719,7 +3723,7 @@
         <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>19</v>
@@ -3733,7 +3737,7 @@
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>19</v>
@@ -3744,13 +3748,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>23</v>
@@ -3764,7 +3768,7 @@
         <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>24</v>
@@ -3772,13 +3776,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>24</v>
@@ -3792,7 +3796,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>19</v>
@@ -3803,7 +3807,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>24</v>
@@ -3817,7 +3821,7 @@
         <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
@@ -3828,7 +3832,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>19</v>
@@ -3839,7 +3843,7 @@
         <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>19</v>
@@ -3853,7 +3857,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>19</v>
@@ -3867,7 +3871,7 @@
         <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>23</v>
@@ -3878,7 +3882,7 @@
         <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>19</v>
@@ -3886,13 +3890,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D65" s="3"/>
     </row>
@@ -3901,7 +3905,7 @@
         <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -3909,13 +3913,13 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>865</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D67" s="3"/>
     </row>
@@ -3924,7 +3928,7 @@
         <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>30</v>
@@ -3938,7 +3942,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>30</v>
@@ -3952,7 +3956,7 @@
         <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -3960,13 +3964,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>862</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>863</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>23</v>
@@ -3974,13 +3978,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>861</v>
-      </c>
       <c r="C72" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>23</v>
@@ -3994,7 +3998,7 @@
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>25</v>
@@ -4011,7 +4015,7 @@
         <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>19</v>
@@ -4025,7 +4029,7 @@
         <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D75" s="3"/>
     </row>
@@ -4034,7 +4038,7 @@
         <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>19</v>
@@ -4045,7 +4049,7 @@
         <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>30</v>
@@ -4059,7 +4063,7 @@
         <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>30</v>
@@ -4076,19 +4080,19 @@
         <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>859</v>
-      </c>
       <c r="C80" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>23</v>
@@ -4096,25 +4100,25 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
+        <v>855</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="B81" s="2" t="s">
-        <v>857</v>
-      </c>
       <c r="C81" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>855</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>23</v>
@@ -4125,7 +4129,7 @@
         <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>24</v>
@@ -4139,7 +4143,7 @@
         <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -4150,7 +4154,7 @@
         <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>23</v>
@@ -4164,7 +4168,7 @@
         <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>23</v>
@@ -4178,7 +4182,7 @@
         <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>10</v>
@@ -4195,7 +4199,7 @@
         <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>23</v>
@@ -4206,13 +4210,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>24</v>
@@ -4223,7 +4227,10 @@
         <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4231,7 +4238,10 @@
         <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>522</v>
+        <v>521</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4239,15 +4249,22 @@
         <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>523</v>
-      </c>
+        <v>522</v>
+      </c>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>524</v>
+        <v>523</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E93" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4255,7 +4272,10 @@
         <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4263,7 +4283,10 @@
         <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>526</v>
+        <v>525</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4271,1695 +4294,2545 @@
         <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+        <v>526</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+        <v>527</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E98" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>881</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="D99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E99" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="D100" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C101" s="2" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="D101" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C102" s="2" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="D102" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E102" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C103" s="2" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="D103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E103" t="s">
+        <v>25</v>
+      </c>
+      <c r="F103" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="D104" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E104" t="s">
+        <v>30</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C105" s="2" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="D105" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E105" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C106" s="2" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="D106" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C107" s="2" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="D107" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E107" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C108" s="2" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="D108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C109" s="2" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="D109" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C110" s="2" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="D110" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E110" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C111" s="2" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="D111" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C112" s="2" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C113" s="2" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C114" s="2" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="D114" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C115" s="2" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="D115" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C116" s="2" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="D116" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116" t="s">
+        <v>23</v>
+      </c>
+      <c r="F116" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C117" s="2" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="D117" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C118" s="2" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="D118" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E118" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C119" s="2" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C120" s="2" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="D120" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C121" s="2" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="D121" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C122" s="2" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="D122" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C123" s="2" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="D123" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C124" s="2" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="D124" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C125" s="2" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="D125" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E125" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C126" s="2" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="D126" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C127" s="2" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="D127" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C128" s="2" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="D128" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C129" s="2" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="D129" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C130" s="2" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C131" s="2" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C132" s="2" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C133" s="2" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="D133" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C134" s="2" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="D134" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C135" s="2" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="D135" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C136" s="2" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="D136" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C137" s="2" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="D137" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C138" s="2" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="D138" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C139" s="2" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C140" s="2" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="D140" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E140" t="s">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C141" s="2" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="D141" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E141" t="s">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C142" s="2" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="D142" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C143" s="2" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="D143" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C144" s="2" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="D144" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C145" s="2" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="D145" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C146" s="2" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="D146" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E146" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C147" s="2" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="D147" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C148" s="2" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="D148" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C149" s="2" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="D149" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C150" s="2" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+      <c r="D150" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E150" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C151" s="2" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="D151" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C152" s="2" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="D152" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C153" s="2" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="D153" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C154" s="2" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C155" s="2" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="D155" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C156" s="2" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="D156" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C157" s="2" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="D157" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C158" s="2" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="D158" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C159" s="2" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="D159" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E159" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C160" s="2" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E160" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" s="2" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="D162" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E162" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C163" s="2" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C164" s="2" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="D164" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C165" s="2" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="D165" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C166" s="2" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="D166" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C167" s="2" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="D167" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E167" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="D168" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C169" s="2" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="D169" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="D170" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C171" s="2" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="D171" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C172" s="2" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="D172" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C173" s="2" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="D173" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E173" t="s">
+        <v>19</v>
+      </c>
+      <c r="F173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C174" s="2" t="s">
         <v>604</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="D174" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C175" s="2" t="s">
         <v>605</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="D175" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E175" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C176" s="2" t="s">
         <v>606</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C177" s="2" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C178" s="2" t="s">
         <v>608</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="D178" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E178" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C179" s="2" t="s">
         <v>609</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="D179" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E179" t="s">
+        <v>9</v>
+      </c>
+      <c r="F179" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C180" s="2" t="s">
         <v>610</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="D180" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E180" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C181" s="2" t="s">
         <v>611</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+      <c r="D181" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C182" s="2" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="D182" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E182" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C183" s="2" t="s">
         <v>613</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+      <c r="D183" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A184" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C184" s="2" t="s">
         <v>614</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+      <c r="D184" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A185" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C185" s="2" t="s">
         <v>615</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+      <c r="D185" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C186" s="2" t="s">
         <v>616</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+      <c r="D186" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C187" s="2" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="D187" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E187" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C188" s="2" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
+      <c r="D188" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E188" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C189" s="2" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+      <c r="D189" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E189" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C190" s="2" t="s">
         <v>620</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C191" s="2" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C192" s="2" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+      <c r="D192" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C193" s="2" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="D193" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C194" s="2" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+      <c r="D194" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C195" s="2" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
+      <c r="D195" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C196" s="2" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+      <c r="D196" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C197" s="2" t="s">
         <v>627</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
+      <c r="D197" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E197" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C198" s="2" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
+      <c r="D198" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E198" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C199" s="2" t="s">
         <v>629</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C200" s="2" t="s">
         <v>630</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A200" s="1" t="s">
+      <c r="D200" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A201" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C201" s="2" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A201" s="1" t="s">
+      <c r="D201" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A202" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C202" s="2" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A202" s="1" t="s">
+      <c r="D202" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A203" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C203" s="2" t="s">
         <v>633</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A203" s="1" t="s">
+      <c r="D203" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A204" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C204" s="2" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A204" s="1" t="s">
+      <c r="D204" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C205" s="2" t="s">
         <v>635</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A205" s="1" t="s">
+      <c r="D205" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E205" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C206" s="2" t="s">
         <v>636</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A206" s="1" t="s">
+      <c r="D206" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C207" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A207" s="1" t="s">
+      <c r="D207" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C208" s="2" t="s">
         <v>638</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A208" s="1" t="s">
+      <c r="D208" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A209" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C209" s="2" t="s">
         <v>639</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A209" s="1" t="s">
+      <c r="D209" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A210" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C210" s="2" t="s">
         <v>640</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A210" s="1" t="s">
+      <c r="D210" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A211" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C211" s="2" t="s">
         <v>641</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A211" s="1" t="s">
+      <c r="D211" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E211" t="s">
+        <v>10</v>
+      </c>
+      <c r="F211" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C212" s="2" t="s">
         <v>642</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A212" s="1" t="s">
+      <c r="D212" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C213" s="2" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A213" s="1" t="s">
+      <c r="D213" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C214" s="2" t="s">
         <v>644</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A214" s="1" t="s">
+      <c r="D214" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A215" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C215" s="2" t="s">
         <v>645</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A215" s="1" t="s">
+      <c r="D215" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A216" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C216" s="2" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A216" s="1" t="s">
+      <c r="D216" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A217" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C217" s="2" t="s">
         <v>647</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A217" s="1" t="s">
+      <c r="D217" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E217" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A218" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C218" s="2" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A218" s="1" t="s">
+      <c r="D218" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A219" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C219" s="2" t="s">
         <v>649</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A219" s="1" t="s">
+      <c r="D219" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A220" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C220" s="2" t="s">
         <v>650</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A220" s="1" t="s">
+      <c r="D220" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E220" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A221" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C221" s="2" t="s">
         <v>651</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A221" s="1" t="s">
+      <c r="D221" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C222" s="2" t="s">
         <v>652</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A222" s="1" t="s">
+      <c r="D222" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A223" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C223" s="2" t="s">
         <v>653</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A223" s="1" t="s">
+      <c r="D223" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A224" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C224" s="2" t="s">
         <v>654</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" s="1" t="s">
+      <c r="D224" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C225" s="2" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="1" t="s">
+      <c r="D225" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>656</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A226" s="1" t="s">
+      <c r="D226" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C227" s="2" t="s">
         <v>657</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A227" s="1" t="s">
+      <c r="D227" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C228" s="2" t="s">
         <v>658</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A228" s="1" t="s">
+      <c r="D228" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A229" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C229" s="2" t="s">
         <v>659</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="1" t="s">
+      <c r="D229" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A230" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C230" s="2" t="s">
         <v>660</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A230" s="1" t="s">
+      <c r="D230" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A231" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>661</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A231" s="1" t="s">
+      <c r="D231" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A232" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C232" s="2" t="s">
         <v>662</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="1" t="s">
+      <c r="D232" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A233" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C233" s="2" t="s">
         <v>663</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A233" s="1" t="s">
+      <c r="D233" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C234" s="2" t="s">
         <v>664</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A234" s="1" t="s">
+      <c r="D234" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A235" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C235" s="2" t="s">
         <v>665</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A235" s="1" t="s">
+      <c r="D235" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A236" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C236" s="2" t="s">
         <v>666</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A236" s="1" t="s">
+      <c r="D236" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A237" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C237" s="2" t="s">
         <v>667</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A237" s="1" t="s">
+      <c r="D237" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>668</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A238" s="1" t="s">
+      <c r="D238" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E238" t="s">
+        <v>10</v>
+      </c>
+      <c r="F238" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C239" s="2" t="s">
         <v>669</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A239" s="1" t="s">
+      <c r="D239" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A240" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C240" s="2" t="s">
         <v>670</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A240" s="1" t="s">
+      <c r="D240" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C241" s="2" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A241" s="1" t="s">
+      <c r="D241" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E241" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A242" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C242" s="2" t="s">
         <v>672</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A242" s="1" t="s">
+      <c r="D242" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E242" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A243" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C243" s="2" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A243" s="1" t="s">
+      <c r="D243" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A244" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C244" s="2" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A244" s="1" t="s">
+      <c r="D244" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A245" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C245" s="2" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A245" s="1" t="s">
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A246" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C246" s="2" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A246" s="1" t="s">
+      <c r="D246" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A247" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C247" s="2" t="s">
         <v>677</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="1" t="s">
+      <c r="D247" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A248" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C248" s="2" t="s">
         <v>678</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="1" t="s">
+      <c r="D248" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C249" s="2" t="s">
         <v>679</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="1" t="s">
+      <c r="D249" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A250" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C250" s="2" t="s">
         <v>680</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="1" t="s">
+      <c r="D250" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A251" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C251" s="2" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="1" t="s">
+      <c r="D251" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A252" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C252" s="2" t="s">
         <v>682</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="1" t="s">
+      <c r="D252" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A253" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C253" s="2" t="s">
         <v>683</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="1" t="s">
+      <c r="D253" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A254" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C254" s="2" t="s">
         <v>684</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="1" t="s">
+      <c r="D254" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C255" s="2" t="s">
         <v>685</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="1" t="s">
+      <c r="D255" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A256" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C256" s="2" t="s">
         <v>686</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="1" t="s">
+      <c r="D256" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C257" s="2" t="s">
         <v>687</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="1" t="s">
+      <c r="D257" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A258" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C258" s="2" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="1" t="s">
+      <c r="D258" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A259" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C259" s="2" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="1" t="s">
+      <c r="D259" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A260" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C260" s="2" t="s">
         <v>690</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="1" t="s">
+      <c r="D260" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E260" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A261" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C261" s="2" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="1" t="s">
+      <c r="D261" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E261" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A262" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C262" s="2" t="s">
         <v>692</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="1" t="s">
+      <c r="D262" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A263" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C263" s="2" t="s">
         <v>693</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="1" t="s">
+      <c r="D263" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A264" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C264" s="2" t="s">
         <v>694</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="1" t="s">
+      <c r="D264" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A265" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C265" s="2" t="s">
         <v>695</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="1" t="s">
+      <c r="D265" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E265" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A266" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C266" s="2" t="s">
         <v>696</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="1" t="s">
+      <c r="D266" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A267" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>697</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="1" t="s">
+      <c r="D267" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C268" s="2" t="s">
         <v>698</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="1" t="s">
+      <c r="D268" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C269" s="2" t="s">
         <v>699</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="1" t="s">
+      <c r="D269" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C270" s="2" t="s">
         <v>700</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="1" t="s">
+      <c r="D270" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E270" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A271" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C271" s="2" t="s">
         <v>701</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="1" t="s">
+      <c r="D271" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E271" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A272" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C272" s="2" t="s">
         <v>702</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="1" t="s">
+      <c r="D272" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E272" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C273" s="2" t="s">
         <v>703</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="1" t="s">
+      <c r="D273" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C274" s="2" t="s">
         <v>704</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="1" t="s">
+      <c r="D274" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A275" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C275" s="2" t="s">
         <v>705</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="1" t="s">
+      <c r="D275" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A276" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C276" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="1" t="s">
+      <c r="D276" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A277" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C277" s="2" t="s">
         <v>707</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="1" t="s">
+      <c r="D277" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E277" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A278" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C278" s="2" t="s">
         <v>708</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="1" t="s">
+      <c r="D278" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C279" s="2" t="s">
         <v>709</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="1" t="s">
+      <c r="D279" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E279" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A280" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C280" s="2" t="s">
         <v>710</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="1" t="s">
+      <c r="D280" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C281" s="2" t="s">
         <v>711</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="1" t="s">
+      <c r="D281" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C282" s="2" t="s">
         <v>712</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="1" t="s">
+      <c r="D282" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A283" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C283" s="2" t="s">
         <v>713</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A283" s="1" t="s">
+      <c r="D283" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E283" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A284" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C284" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E284" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A285" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C285" s="2" t="s">
         <v>714</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A284" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C284" s="2" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A285" s="1" t="s">
+      <c r="D285" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A286" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C286" s="2" t="s">
         <v>715</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A286" s="1" t="s">
+      <c r="D286" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C286" s="2" t="s">
+      <c r="C287" s="2" t="s">
         <v>716</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A287" s="1" t="s">
+      <c r="D287" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C287" s="2" t="s">
+      <c r="C288" s="2" t="s">
         <v>717</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A288" s="1" t="s">
+      <c r="D288" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="C288" s="2" t="s">
+      <c r="C289" s="2" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A289" s="1" t="s">
+      <c r="D289" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A290" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C289" s="2" t="s">
+      <c r="C290" s="2" t="s">
         <v>719</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A290" s="1" t="s">
+      <c r="D290" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C290" s="2" t="s">
+      <c r="C291" s="2" t="s">
         <v>720</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A291" s="1" t="s">
+      <c r="D291" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C291" s="2" t="s">
+      <c r="C292" s="2" t="s">
         <v>721</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A292" s="1" t="s">
+      <c r="D292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C292" s="2" t="s">
+      <c r="C293" s="2" t="s">
         <v>722</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A293" s="1" t="s">
+      <c r="D293" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C293" s="2" t="s">
+      <c r="C294" s="2" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A294" s="1" t="s">
+      <c r="D294" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>25</v>
+      </c>
+      <c r="F294" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A295" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="C294" s="2" t="s">
+      <c r="C295" s="2" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A295" s="1" t="s">
+      <c r="D295" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E295" t="s">
+        <v>25</v>
+      </c>
+      <c r="F295" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C295" s="2" t="s">
+      <c r="C296" s="2" t="s">
         <v>725</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A296" s="1" t="s">
+      <c r="D296" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C296" s="2" t="s">
+      <c r="C297" s="2" t="s">
         <v>726</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A297" s="1" t="s">
+      <c r="D297" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C297" s="2" t="s">
+      <c r="C298" s="2" t="s">
         <v>727</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A298" s="1" t="s">
+      <c r="D298" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E298" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A299" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C298" s="2" t="s">
+      <c r="C299" s="2" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A299" s="1" t="s">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="C299" s="2" t="s">
+      <c r="C300" s="2" t="s">
         <v>729</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A300" s="1" t="s">
+      <c r="D300" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C300" s="2" t="s">
+      <c r="C301" s="2" t="s">
         <v>730</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A301" s="1" t="s">
+      <c r="D301" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C301" s="2" t="s">
+      <c r="C302" s="2" t="s">
         <v>731</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A302" s="1" t="s">
+      <c r="D302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C302" s="2" t="s">
+      <c r="C303" s="2" t="s">
         <v>732</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A303" s="1" t="s">
+      <c r="D303" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="C303" s="2" t="s">
+      <c r="C304" s="2" t="s">
         <v>733</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A304" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>734</v>
+      <c r="D304" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E304" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>735</v>
+        <v>734</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E305" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>9</v>
@@ -5970,762 +6843,762 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C366" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.2">
@@ -6733,127 +7606,127 @@
         <v>10</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -6920,19 +7793,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B2" t="s">
+        <v>848</v>
+      </c>
+      <c r="C2" t="s">
         <v>846</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>849</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>847</v>
-      </c>
-      <c r="D2" t="s">
-        <v>850</v>
-      </c>
-      <c r="E2" t="s">
-        <v>848</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>

--- a/Vocabularies/ID/id-deq-g.xlsx
+++ b/Vocabularies/ID/id-deq-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Library/Containers/com.microsoft.Excel/Data/Desktop/WSWC/IoW/Vocabularies/ID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31909EEA-9542-8547-8096-00FCBED8CD99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A70E46-4FA7-2A40-BEC1-62D2D399B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-38400" yWindow="1180" windowWidth="38400" windowHeight="21140" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1299" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="883">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -3045,8 +3045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E304" sqref="E304"/>
+    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D419" sqref="D419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3289,7 +3289,9 @@
       <c r="C17" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
@@ -3581,7 +3583,9 @@
       <c r="C41" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="D41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
@@ -3660,7 +3664,9 @@
       <c r="C47" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
@@ -3898,7 +3904,9 @@
       <c r="C65" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
@@ -3921,7 +3929,9 @@
       <c r="C67" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="D67" s="3"/>
+      <c r="D67" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
@@ -4031,7 +4041,9 @@
       <c r="C75" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="D75" s="3"/>
+      <c r="D75" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
@@ -4082,7 +4094,9 @@
       <c r="C79" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
@@ -4108,7 +4122,12 @@
       <c r="C81" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E81" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
@@ -4251,7 +4270,9 @@
       <c r="C92" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
@@ -4508,7 +4529,9 @@
       <c r="C112" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="D112" s="3"/>
+      <c r="D112" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
@@ -4517,7 +4540,9 @@
       <c r="C113" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="D113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
@@ -4590,7 +4615,9 @@
       <c r="C119" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
@@ -4727,7 +4754,9 @@
       <c r="C130" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
@@ -4736,7 +4765,9 @@
       <c r="C131" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="D131" s="3"/>
+      <c r="D131" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
@@ -4745,7 +4776,9 @@
       <c r="C132" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="D132" s="3"/>
+      <c r="D132" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
@@ -4829,7 +4862,9 @@
       <c r="C139" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="D139" s="3"/>
+      <c r="D139" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
@@ -5022,7 +5057,9 @@
       <c r="C154" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="D154" s="3"/>
+      <c r="D154" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
@@ -5131,7 +5168,9 @@
       <c r="C163" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
@@ -5143,6 +5182,12 @@
       <c r="D164" s="2" t="s">
         <v>24</v>
       </c>
+      <c r="E164" t="s">
+        <v>9</v>
+      </c>
+      <c r="F164" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
@@ -5287,7 +5332,9 @@
       <c r="C176" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
@@ -5463,7 +5510,12 @@
       <c r="C190" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="D190" s="3"/>
+      <c r="D190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E190" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
@@ -5472,7 +5524,9 @@
       <c r="C191" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="D191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
@@ -5564,7 +5618,9 @@
       <c r="C199" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D199" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
@@ -6113,7 +6169,9 @@
       <c r="C245" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="D245" s="3"/>
+      <c r="D245" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
@@ -6236,7 +6294,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>270</v>
       </c>
@@ -6247,7 +6305,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>271</v>
       </c>
@@ -6258,7 +6316,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>272</v>
       </c>
@@ -6269,7 +6327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>273</v>
       </c>
@@ -6283,7 +6341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>274</v>
       </c>
@@ -6297,7 +6355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
         <v>275</v>
       </c>
@@ -6308,7 +6366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
         <v>276</v>
       </c>
@@ -6319,7 +6377,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
         <v>277</v>
       </c>
@@ -6330,7 +6388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>278</v>
       </c>
@@ -6344,7 +6402,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
         <v>279</v>
       </c>
@@ -6355,7 +6413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
         <v>280</v>
       </c>
@@ -6366,7 +6424,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
         <v>281</v>
       </c>
@@ -6377,7 +6435,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>282</v>
       </c>
@@ -6388,7 +6446,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>283</v>
       </c>
@@ -6401,8 +6459,11 @@
       <c r="E270" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F270" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
         <v>284</v>
       </c>
@@ -6415,8 +6476,11 @@
       <c r="E271" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F271" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
         <v>285</v>
       </c>
@@ -6428,6 +6492,12 @@
       </c>
       <c r="E272" t="s">
         <v>19</v>
+      </c>
+      <c r="F272" t="s">
+        <v>10</v>
+      </c>
+      <c r="G272" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
@@ -6440,6 +6510,9 @@
       <c r="D273" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="E273" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
@@ -6658,7 +6731,9 @@
       <c r="C292" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="D292" s="3"/>
+      <c r="D292" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
@@ -6778,7 +6853,9 @@
       <c r="C302" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="D302" s="3"/>
+      <c r="D302" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
@@ -6805,7 +6882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
         <v>318</v>
       </c>
@@ -6819,15 +6896,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
         <v>319</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>735</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D306" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
         <v>320</v>
       </c>
@@ -6841,892 +6921,1390 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
         <v>321</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>737</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D308" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>322</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D309" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>323</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>739</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D310" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>324</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>740</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D311" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>325</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>741</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D312" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>326</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>742</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D313" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E313" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>327</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>743</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D314" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
         <v>328</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>744</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D315" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
         <v>329</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>745</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D316" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>23</v>
+      </c>
+      <c r="F316" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
         <v>330</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>746</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D317" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E317" t="s">
+        <v>14</v>
+      </c>
+      <c r="F317" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
         <v>331</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>747</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D318" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
         <v>332</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>748</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D319" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>333</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>749</v>
       </c>
-    </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D320" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E320" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
         <v>334</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>750</v>
       </c>
-    </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D321" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
         <v>335</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>751</v>
       </c>
-    </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D322" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E322" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
         <v>336</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D323" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E323" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>337</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>753</v>
       </c>
-    </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D324" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E324" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>338</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>754</v>
       </c>
-    </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D325" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>755</v>
       </c>
-    </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D326" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>340</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>756</v>
       </c>
-    </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D327" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>341</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D328" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>342</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D329" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
         <v>343</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D330" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
         <v>344</v>
       </c>
       <c r="C331" s="2" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D331" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
         <v>345</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D332" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
         <v>346</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D333" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
         <v>347</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D334" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>348</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D335" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
         <v>349</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D336" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
         <v>350</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D337" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
         <v>351</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D338" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>352</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D339" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>353</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D340" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
         <v>354</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D341" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
         <v>355</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D342" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E342" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F342" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
         <v>356</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D343" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>357</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D344" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>358</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>774</v>
       </c>
-    </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D345" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>359</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D346" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E346" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>360</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D347" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E347" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>361</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D348" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E348" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>362</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D349" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E349" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
         <v>363</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D350" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
         <v>364</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D351" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
         <v>365</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D352" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
         <v>366</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>782</v>
       </c>
-    </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D353" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
         <v>367</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>783</v>
       </c>
-    </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D354" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
         <v>368</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>706</v>
       </c>
-    </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D355" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
         <v>369</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D356" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>370</v>
       </c>
       <c r="C357" s="2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D357" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>371</v>
       </c>
       <c r="C358" s="2" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D358" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
         <v>372</v>
       </c>
       <c r="C359" s="2" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D359" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E359" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
         <v>373</v>
       </c>
       <c r="C360" s="2" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D360" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
         <v>374</v>
       </c>
       <c r="C361" s="2" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D361" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E361" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>375</v>
       </c>
       <c r="C362" s="2" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D362" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E362" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>376</v>
       </c>
       <c r="C363" s="2" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D363" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E363" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>377</v>
       </c>
       <c r="C364" s="2" t="s">
         <v>792</v>
       </c>
-    </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D364" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E364" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>378</v>
       </c>
       <c r="C365" s="2" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D365" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E365" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>379</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D366" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>380</v>
       </c>
       <c r="C367" s="2" t="s">
         <v>795</v>
       </c>
-    </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D367" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E367" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
         <v>381</v>
       </c>
       <c r="C368" s="2" t="s">
         <v>796</v>
       </c>
-    </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D368" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
         <v>382</v>
       </c>
       <c r="C369" s="2" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D369" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
         <v>383</v>
       </c>
       <c r="C370" s="2" t="s">
         <v>797</v>
       </c>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D370" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E370" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
         <v>384</v>
       </c>
       <c r="C371" s="2" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D371" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E371" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
         <v>385</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>799</v>
       </c>
-    </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D372" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
         <v>386</v>
       </c>
       <c r="C373" s="2" t="s">
         <v>800</v>
       </c>
-    </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D373" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
         <v>387</v>
       </c>
       <c r="C374" s="2" t="s">
         <v>801</v>
       </c>
-    </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D374" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
         <v>388</v>
       </c>
       <c r="C375" s="2" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D375" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E375" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
         <v>389</v>
       </c>
       <c r="C376" s="2" t="s">
         <v>803</v>
       </c>
-    </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D376" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E376" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
         <v>390</v>
       </c>
       <c r="C377" s="2" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D377" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
         <v>391</v>
       </c>
       <c r="C378" s="2" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D378" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
         <v>392</v>
       </c>
       <c r="C379" s="2" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D379" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
         <v>393</v>
       </c>
       <c r="C380" s="2" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D380" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
         <v>394</v>
       </c>
       <c r="C381" s="2" t="s">
         <v>808</v>
       </c>
-    </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D381" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
         <v>395</v>
       </c>
       <c r="C382" s="2" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D382" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E382" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F382" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
         <v>396</v>
       </c>
       <c r="C383" s="2" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D383" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
         <v>397</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>811</v>
       </c>
-    </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D384" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>398</v>
       </c>
       <c r="C385" s="2" t="s">
         <v>812</v>
       </c>
-    </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D385" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
         <v>399</v>
       </c>
       <c r="C386" s="2" t="s">
         <v>813</v>
       </c>
-    </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D386" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
         <v>400</v>
       </c>
       <c r="C387" s="2" t="s">
         <v>814</v>
       </c>
-    </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D387" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
         <v>401</v>
       </c>
       <c r="C388" s="2" t="s">
         <v>815</v>
       </c>
-    </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D388" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
         <v>402</v>
       </c>
       <c r="C389" s="2" t="s">
         <v>816</v>
       </c>
-    </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D389" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
         <v>403</v>
       </c>
       <c r="C390" s="2" t="s">
         <v>817</v>
       </c>
-    </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D390" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E390" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>404</v>
       </c>
       <c r="C391" s="2" t="s">
         <v>818</v>
       </c>
-    </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D391" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E391" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
         <v>405</v>
       </c>
       <c r="C392" s="2" t="s">
         <v>819</v>
       </c>
-    </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D392" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E392" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
         <v>406</v>
       </c>
       <c r="C393" s="2" t="s">
         <v>820</v>
       </c>
-    </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D393" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E393" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
         <v>407</v>
       </c>
       <c r="C394" s="2" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D394" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E394" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
         <v>408</v>
       </c>
       <c r="C395" s="2" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D395" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E395" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
         <v>409</v>
       </c>
       <c r="C396" s="2" t="s">
         <v>823</v>
       </c>
-    </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D396" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>410</v>
       </c>
       <c r="C397" s="2" t="s">
         <v>824</v>
       </c>
-    </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D397" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E397" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>411</v>
       </c>
       <c r="C398" s="2" t="s">
         <v>825</v>
       </c>
-    </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D398" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E398" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F398" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>412</v>
       </c>
       <c r="C399" s="2" t="s">
         <v>826</v>
       </c>
-    </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D399" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E399" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F399" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>413</v>
       </c>
       <c r="C400" s="2" t="s">
         <v>827</v>
       </c>
-    </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D400" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E400" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>414</v>
       </c>
       <c r="C401" s="2" t="s">
         <v>828</v>
       </c>
-    </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D401" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>415</v>
       </c>
       <c r="C402" s="2" t="s">
         <v>829</v>
       </c>
-    </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D402" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E402" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F402" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C403" s="2" t="s">
         <v>830</v>
       </c>
-    </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D403" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
         <v>416</v>
       </c>
       <c r="C404" s="2" t="s">
         <v>831</v>
       </c>
-    </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D404" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E404" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
         <v>417</v>
       </c>
       <c r="C405" s="2" t="s">
         <v>832</v>
       </c>
-    </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D405" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E405" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
         <v>418</v>
       </c>
       <c r="C406" s="2" t="s">
         <v>833</v>
       </c>
-    </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D406" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E406" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
         <v>419</v>
       </c>
       <c r="C407" s="2" t="s">
         <v>834</v>
       </c>
-    </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D407" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E407" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>420</v>
       </c>
       <c r="C408" s="2" t="s">
         <v>835</v>
       </c>
-    </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D408" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
         <v>421</v>
       </c>
       <c r="C409" s="2" t="s">
         <v>836</v>
       </c>
-    </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D409" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E409" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
         <v>422</v>
       </c>
       <c r="C410" s="2" t="s">
         <v>837</v>
       </c>
-    </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D410" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
         <v>423</v>
       </c>
       <c r="C411" s="2" t="s">
         <v>838</v>
       </c>
-    </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D411" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>424</v>
       </c>
       <c r="C412" s="2" t="s">
         <v>839</v>
       </c>
-    </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D412" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E412" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>425</v>
       </c>
       <c r="C413" s="2" t="s">
         <v>840</v>
       </c>
-    </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D413" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E413" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F413" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>426</v>
       </c>
       <c r="C414" s="2" t="s">
         <v>841</v>
       </c>
-    </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D414" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>427</v>
       </c>
       <c r="C415" s="2" t="s">
         <v>842</v>
       </c>
-    </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D415" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>428</v>
       </c>
       <c r="C416" s="2" t="s">
         <v>843</v>
       </c>
-    </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D416" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>429</v>
       </c>
       <c r="C417" s="2" t="s">
         <v>637</v>
       </c>
-    </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D417" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
         <v>430</v>
       </c>
       <c r="C418" s="2" t="s">
         <v>844</v>
+      </c>
+      <c r="D418" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7738,7 +8316,7 @@
           <x14:formula1>
             <xm:f>'Vocabulary Metadata'!$G$2:$G$9</xm:f>
           </x14:formula1>
-          <xm:sqref>D2466:H6138 D2:H2465</xm:sqref>
+          <xm:sqref>D2:H6138</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/Vocabularies/ID/id-deq-g.xlsx
+++ b/Vocabularies/ID/id-deq-g.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/ID/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustus/Desktop/WSWC/IoW/Vocabularies/ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A70E46-4FA7-2A40-BEC1-62D2D399B938}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BACB51-90C2-8244-9B3C-3DCF5004AC86}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1180" windowWidth="38400" windowHeight="21140" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1500" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="924">
   <si>
     <t>Abbreviation</t>
   </si>
@@ -502,9 +502,6 @@
     <t>Generator</t>
   </si>
   <si>
-    <t>Geographical Information Systems (GIS)</t>
-  </si>
-  <si>
     <t>Glide</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
     <t>Hydrologic Unit</t>
   </si>
   <si>
-    <t>Hydrologic Unit Code (HUC)</t>
-  </si>
-  <si>
     <t>Idaho OnePlan</t>
   </si>
   <si>
@@ -613,12 +607,6 @@
     <t>Landfill</t>
   </si>
   <si>
-    <t>Large Quantity Generator (LGQ) (of Hazardous Waste)</t>
-  </si>
-  <si>
-    <t>Large Soil Absorption System (LSAS)</t>
-  </si>
-  <si>
     <t>Lead</t>
   </si>
   <si>
@@ -628,15 +616,9 @@
     <t>Liminology</t>
   </si>
   <si>
-    <t>Load Allocation (LA)</t>
-  </si>
-  <si>
     <t>Load(ing)</t>
   </si>
   <si>
-    <t>Load(ing) Capacity (LC)</t>
-  </si>
-  <si>
     <t>Loam</t>
   </si>
   <si>
@@ -652,18 +634,12 @@
     <t>Macrophyte</t>
   </si>
   <si>
-    <t>Maximum Achievable Control Technology (MACT)</t>
-  </si>
-  <si>
     <t>MACT Hammer</t>
   </si>
   <si>
     <t>Major Source (of Air Pollution) (Title V)</t>
   </si>
   <si>
-    <t>Margin of Safety (MOS)</t>
-  </si>
-  <si>
     <t>Mass Wasting</t>
   </si>
   <si>
@@ -691,12 +667,6 @@
     <t>Mill Yard Debris Facility (Wood Debris Facility)</t>
   </si>
   <si>
-    <t>Milligrams per Liter (mg/L)</t>
-  </si>
-  <si>
-    <t>Million Gallons per Day (MGD)</t>
-  </si>
-  <si>
     <t>Minor Source (of Air Pollution)</t>
   </si>
   <si>
@@ -721,21 +691,9 @@
     <t>Narrative Criteria</t>
   </si>
   <si>
-    <t>National Ambient Air Quality Standards (NAAQS)</t>
-  </si>
-  <si>
-    <t>National Emission Standard for Hazardous Air Pollutants (NESHAP)</t>
-  </si>
-  <si>
-    <t>National Pollutant Discharge Elimination System (NPDES)</t>
-  </si>
-  <si>
     <t>Natural Background (Natural Condition)</t>
   </si>
   <si>
-    <t>New Source Performance Standards (NSPS)</t>
-  </si>
-  <si>
     <t>Nitrate</t>
   </si>
   <si>
@@ -745,9 +703,6 @@
     <t>Nitrogen</t>
   </si>
   <si>
-    <t>Nitrogen Dioxide (NO2)</t>
-  </si>
-  <si>
     <t>Nonattainment Area</t>
   </si>
   <si>
@@ -775,9 +730,6 @@
     <t>Not Fully Supporting</t>
   </si>
   <si>
-    <t>Notice of Violation (NOV)</t>
-  </si>
-  <si>
     <t>Nuisance</t>
   </si>
   <si>
@@ -823,9 +775,6 @@
     <t>Parameter</t>
   </si>
   <si>
-    <t>Particulate Matter (PM)</t>
-  </si>
-  <si>
     <t>Pathogens</t>
   </si>
   <si>
@@ -838,12 +787,6 @@
     <t>Periphyton</t>
   </si>
   <si>
-    <t>Permit to Construct (PTC)</t>
-  </si>
-  <si>
-    <t>Permit by Rule (PBR)</t>
-  </si>
-  <si>
     <t>Pesticide</t>
   </si>
   <si>
@@ -889,9 +832,6 @@
     <t>Pollution</t>
   </si>
   <si>
-    <t>Pollution Prevention (P2)</t>
-  </si>
-  <si>
     <t>Population</t>
   </si>
   <si>
@@ -925,12 +865,6 @@
     <t>Qualitative</t>
   </si>
   <si>
-    <t>Quality Assurance (QA)</t>
-  </si>
-  <si>
-    <t>Quality Control (QC)</t>
-  </si>
-  <si>
     <t>Quantitative</t>
   </si>
   <si>
@@ -967,9 +901,6 @@
     <t>Residential Burning (Backyard Burning)</t>
   </si>
   <si>
-    <t>Resource Conservation and Recovery Act (RCRA)</t>
-  </si>
-  <si>
     <t>Respiration</t>
   </si>
   <si>
@@ -1030,9 +961,6 @@
     <t>Site Specific Criteria</t>
   </si>
   <si>
-    <t>Small Quantity Generator (of Hazardous Waste) (SQG)</t>
-  </si>
-  <si>
     <t>Sole Source Aquifer</t>
   </si>
   <si>
@@ -1063,9 +991,6 @@
     <t>Stagnation</t>
   </si>
   <si>
-    <t>State Implementation Plan (SIP)</t>
-  </si>
-  <si>
     <t>Stationary Source</t>
   </si>
   <si>
@@ -1093,15 +1018,9 @@
     <t>Subbasin</t>
   </si>
   <si>
-    <t>Subbasin Assessment (SBA)</t>
-  </si>
-  <si>
     <t>Subwatershed</t>
   </si>
   <si>
-    <t>Sulfur Dioxide (SO2)</t>
-  </si>
-  <si>
     <t>Sump</t>
   </si>
   <si>
@@ -1111,12 +1030,6 @@
     <t>Superfund</t>
   </si>
   <si>
-    <t>Superfund Amendments and Reauthorization Act (SARA)</t>
-  </si>
-  <si>
-    <t>Supplemental Environment Project (SEP)</t>
-  </si>
-  <si>
     <t>Surface Fines</t>
   </si>
   <si>
@@ -1144,9 +1057,6 @@
     <t>Taxonomy</t>
   </si>
   <si>
-    <t>Technical Advisory Group (TAG)</t>
-  </si>
-  <si>
     <t>Thalweg</t>
   </si>
   <si>
@@ -1168,12 +1078,6 @@
     <t>Total Dissolved Solids</t>
   </si>
   <si>
-    <t>Total Maximum Daily Load (TMDL)</t>
-  </si>
-  <si>
-    <t>Total Suspended Solids (TSS)</t>
-  </si>
-  <si>
     <t>Toxics (Air Toxics)</t>
   </si>
   <si>
@@ -1186,9 +1090,6 @@
     <t>Transfer Station</t>
   </si>
   <si>
-    <t>Treatment, Storage, and Disposal Facility (TSD)</t>
-  </si>
-  <si>
     <t>Tributary</t>
   </si>
   <si>
@@ -1204,18 +1105,12 @@
     <t>Unconfined Aquifer</t>
   </si>
   <si>
-    <t>Underground Storage Tank (UST)</t>
-  </si>
-  <si>
     <t>Universal Waste</t>
   </si>
   <si>
     <t>Unsaturated Zone</t>
   </si>
   <si>
-    <t>Use Attainability Analysis (UAA)</t>
-  </si>
-  <si>
     <t>Used Oil</t>
   </si>
   <si>
@@ -1228,18 +1123,12 @@
     <t>Visible Emissions</t>
   </si>
   <si>
-    <t>Volatile Organic Compounds (VOCs)</t>
-  </si>
-  <si>
     <t>Warning Letter</t>
   </si>
   <si>
     <t>Waste</t>
   </si>
   <si>
-    <t>Wasteload Allocation (WLA)</t>
-  </si>
-  <si>
     <t>Wastewater</t>
   </si>
   <si>
@@ -1261,12 +1150,6 @@
     <t>Water Body Assessment</t>
   </si>
   <si>
-    <t>Water Body Assessment Guidance (WBAG)</t>
-  </si>
-  <si>
-    <t>Water Body Identification Number (WBID)</t>
-  </si>
-  <si>
     <t>Water Column</t>
   </si>
   <si>
@@ -1282,9 +1165,6 @@
     <t>Water Quality Limited</t>
   </si>
   <si>
-    <t>Water Quality Limited Segment (WQLS)</t>
-  </si>
-  <si>
     <t>Water Quality Management Plan</t>
   </si>
   <si>
@@ -1300,9 +1180,6 @@
     <t>Watershed</t>
   </si>
   <si>
-    <t>Watershed Adivisory Group (WAG)</t>
-  </si>
-  <si>
     <t>Wellhead Protection</t>
   </si>
   <si>
@@ -2675,6 +2552,252 @@
   </si>
   <si>
     <t>Dissolved Oxygen</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>Geographical Information Systems</t>
+  </si>
+  <si>
+    <t>Hydrologic Unit Code</t>
+  </si>
+  <si>
+    <t>HUC</t>
+  </si>
+  <si>
+    <t>Large Quantity Generator</t>
+  </si>
+  <si>
+    <t>LGQ</t>
+  </si>
+  <si>
+    <t>Large Soil Absorption System</t>
+  </si>
+  <si>
+    <t>LSAS</t>
+  </si>
+  <si>
+    <t>Load Allocation</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Load(ing) Capacity</t>
+  </si>
+  <si>
+    <t>LC</t>
+  </si>
+  <si>
+    <t>Maximum Achievable Control Technology</t>
+  </si>
+  <si>
+    <t>MACT</t>
+  </si>
+  <si>
+    <t>Margin of Safety</t>
+  </si>
+  <si>
+    <t>MOS</t>
+  </si>
+  <si>
+    <t>Milligrams per Liter</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>Million Gallons per Day</t>
+  </si>
+  <si>
+    <t>MGD</t>
+  </si>
+  <si>
+    <t>National Ambient Air Quality Standards</t>
+  </si>
+  <si>
+    <t>NAAQS</t>
+  </si>
+  <si>
+    <t>National Emission Standard for Hazardous Air Pollutants</t>
+  </si>
+  <si>
+    <t>NESHAP</t>
+  </si>
+  <si>
+    <t>National Pollutant Discharge Elimination System</t>
+  </si>
+  <si>
+    <t>NPDES</t>
+  </si>
+  <si>
+    <t>New Source Performance Standards</t>
+  </si>
+  <si>
+    <t>NSPS</t>
+  </si>
+  <si>
+    <t>Nitrogen Dioxide</t>
+  </si>
+  <si>
+    <t>NO2</t>
+  </si>
+  <si>
+    <t>Notice of Violation</t>
+  </si>
+  <si>
+    <t>NOV</t>
+  </si>
+  <si>
+    <t>Particulate Matter</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>Permit to Construct</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>Permit by Rule</t>
+  </si>
+  <si>
+    <t>PBR</t>
+  </si>
+  <si>
+    <t>Pollution Prevention</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>Quality Assurance</t>
+  </si>
+  <si>
+    <t>QA</t>
+  </si>
+  <si>
+    <t>Quality Control</t>
+  </si>
+  <si>
+    <t>QC</t>
+  </si>
+  <si>
+    <t>Resource Conservation and Recovery Act</t>
+  </si>
+  <si>
+    <t>RCRA</t>
+  </si>
+  <si>
+    <t>Small Quantity Generator (of Hazardous Waste)</t>
+  </si>
+  <si>
+    <t>SQG</t>
+  </si>
+  <si>
+    <t>State Implementation Plan</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>Subbasin Assessment</t>
+  </si>
+  <si>
+    <t>SBA</t>
+  </si>
+  <si>
+    <t>Sulfur Dioxide</t>
+  </si>
+  <si>
+    <t>SO2</t>
+  </si>
+  <si>
+    <t>Superfund Amendments and Reauthorization Act</t>
+  </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>Supplemental Environment Project</t>
+  </si>
+  <si>
+    <t>SEP</t>
+  </si>
+  <si>
+    <t>Technical Advisory Group</t>
+  </si>
+  <si>
+    <t>TAG</t>
+  </si>
+  <si>
+    <t>Total Maximum Daily Load</t>
+  </si>
+  <si>
+    <t>TMDL</t>
+  </si>
+  <si>
+    <t>Total Suspended Solids</t>
+  </si>
+  <si>
+    <t>TSS</t>
+  </si>
+  <si>
+    <t>Treatment, Storage, and Disposal Facility</t>
+  </si>
+  <si>
+    <t>TSD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underground Storage Tank </t>
+  </si>
+  <si>
+    <t>UST</t>
+  </si>
+  <si>
+    <t>Use Attainability Analysis</t>
+  </si>
+  <si>
+    <t>UAA</t>
+  </si>
+  <si>
+    <t>Volatile Organic Compounds</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>Wasteload Allocation</t>
+  </si>
+  <si>
+    <t>WLA</t>
+  </si>
+  <si>
+    <t>Water Body Assessment Guidance</t>
+  </si>
+  <si>
+    <t>WBAG</t>
+  </si>
+  <si>
+    <t>Water Body Identification Number</t>
+  </si>
+  <si>
+    <t>WBID</t>
+  </si>
+  <si>
+    <t>Water Quality Limited Segment</t>
+  </si>
+  <si>
+    <t>WQLS</t>
+  </si>
+  <si>
+    <t>Watershed Adivisory Group</t>
+  </si>
+  <si>
+    <t>WAG</t>
   </si>
 </sst>
 </file>
@@ -2721,7 +2844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2729,6 +2852,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3045,8 +3171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I418"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A383" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D419" sqref="D419"/>
+    <sheetView tabSelected="1" topLeftCell="A381" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A419" sqref="A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3066,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -3092,7 +3218,7 @@
         <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>432</v>
+        <v>391</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>23</v>
@@ -3106,7 +3232,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>433</v>
+        <v>392</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>23</v>
@@ -3120,7 +3246,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>434</v>
+        <v>393</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
@@ -3134,7 +3260,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>435</v>
+        <v>394</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>23</v>
@@ -3151,7 +3277,7 @@
         <v>36</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>436</v>
+        <v>395</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
@@ -3162,10 +3288,10 @@
         <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>850</v>
+        <v>809</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>437</v>
+        <v>396</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>24</v>
@@ -3176,7 +3302,7 @@
         <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -3184,7 +3310,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>439</v>
+        <v>398</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>19</v>
@@ -3198,7 +3324,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>440</v>
+        <v>399</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>23</v>
@@ -3209,7 +3335,7 @@
         <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>24</v>
@@ -3223,7 +3349,7 @@
         <v>42</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>442</v>
+        <v>401</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
@@ -3237,7 +3363,7 @@
         <v>43</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>443</v>
+        <v>402</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>24</v>
@@ -3251,7 +3377,7 @@
         <v>44</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>444</v>
+        <v>403</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>19</v>
@@ -3262,7 +3388,7 @@
         <v>45</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>445</v>
+        <v>404</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>24</v>
@@ -3270,13 +3396,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>872</v>
+        <v>831</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>871</v>
+        <v>830</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>446</v>
+        <v>405</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>24</v>
@@ -3287,18 +3413,16 @@
         <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>448</v>
+        <v>407</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>19</v>
@@ -3309,7 +3433,7 @@
         <v>48</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>449</v>
+        <v>408</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>19</v>
@@ -3320,7 +3444,7 @@
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>450</v>
+        <v>409</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>9</v>
@@ -3331,7 +3455,7 @@
         <v>50</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>451</v>
+        <v>410</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>9</v>
@@ -3342,7 +3466,7 @@
         <v>51</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>452</v>
+        <v>411</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>19</v>
@@ -3356,7 +3480,7 @@
         <v>52</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>453</v>
+        <v>412</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
@@ -3367,7 +3491,7 @@
         <v>53</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>454</v>
+        <v>413</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>10</v>
@@ -3378,7 +3502,7 @@
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>455</v>
+        <v>414</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>10</v>
@@ -3392,7 +3516,7 @@
         <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>456</v>
+        <v>415</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>19</v>
@@ -3403,7 +3527,7 @@
         <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>457</v>
+        <v>416</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>10</v>
@@ -3417,7 +3541,7 @@
         <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>19</v>
@@ -3428,7 +3552,7 @@
         <v>58</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>459</v>
+        <v>418</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>19</v>
@@ -3442,7 +3566,7 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>460</v>
+        <v>419</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>19</v>
@@ -3453,7 +3577,7 @@
         <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>461</v>
+        <v>420</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>9</v>
@@ -3461,13 +3585,13 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>873</v>
+        <v>832</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>870</v>
+        <v>829</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>10</v>
@@ -3481,7 +3605,7 @@
         <v>61</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>463</v>
+        <v>422</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>24</v>
@@ -3492,7 +3616,7 @@
         <v>62</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>464</v>
+        <v>423</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>24</v>
@@ -3503,7 +3627,7 @@
         <v>63</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>465</v>
+        <v>424</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>19</v>
@@ -3511,13 +3635,13 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>874</v>
+        <v>833</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>869</v>
+        <v>828</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>466</v>
+        <v>425</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>24</v>
@@ -3531,7 +3655,7 @@
         <v>64</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>467</v>
+        <v>426</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>24</v>
@@ -3545,7 +3669,7 @@
         <v>65</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>468</v>
+        <v>427</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>25</v>
@@ -3556,7 +3680,7 @@
         <v>66</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>469</v>
+        <v>428</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>23</v>
@@ -3567,7 +3691,7 @@
         <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>470</v>
+        <v>429</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>19</v>
@@ -3581,18 +3705,16 @@
         <v>68</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>472</v>
+        <v>431</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>9</v>
@@ -3603,7 +3725,7 @@
         <v>70</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>9</v>
@@ -3617,7 +3739,7 @@
         <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>474</v>
+        <v>433</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>9</v>
@@ -3628,13 +3750,13 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>876</v>
+        <v>835</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>475</v>
+        <v>434</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>23</v>
@@ -3648,7 +3770,7 @@
         <v>72</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>476</v>
+        <v>435</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>23</v>
@@ -3662,18 +3784,16 @@
         <v>73</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>436</v>
+      </c>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>478</v>
+        <v>437</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>9</v>
@@ -3687,7 +3807,7 @@
         <v>75</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>479</v>
+        <v>438</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>25</v>
@@ -3695,13 +3815,13 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>877</v>
+        <v>836</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>868</v>
+        <v>827</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>480</v>
+        <v>439</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>23</v>
@@ -3715,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>481</v>
+        <v>440</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>9</v>
@@ -3729,7 +3849,7 @@
         <v>77</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>482</v>
+        <v>441</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>19</v>
@@ -3743,7 +3863,7 @@
         <v>78</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>483</v>
+        <v>442</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>19</v>
@@ -3754,13 +3874,13 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>878</v>
+        <v>837</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>867</v>
+        <v>826</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>484</v>
+        <v>443</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>23</v>
@@ -3774,7 +3894,7 @@
         <v>79</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>485</v>
+        <v>444</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>24</v>
@@ -3782,13 +3902,13 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>879</v>
+        <v>838</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>866</v>
+        <v>825</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>486</v>
+        <v>445</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>24</v>
@@ -3802,7 +3922,7 @@
         <v>80</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>487</v>
+        <v>446</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>19</v>
@@ -3813,7 +3933,7 @@
         <v>81</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>24</v>
@@ -3827,7 +3947,7 @@
         <v>82</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>489</v>
+        <v>448</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>10</v>
@@ -3838,7 +3958,7 @@
         <v>83</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>490</v>
+        <v>449</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>19</v>
@@ -3849,7 +3969,7 @@
         <v>84</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>491</v>
+        <v>450</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>19</v>
@@ -3863,7 +3983,7 @@
         <v>85</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>492</v>
+        <v>451</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>19</v>
@@ -3877,7 +3997,7 @@
         <v>86</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>493</v>
+        <v>452</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>23</v>
@@ -3888,7 +4008,7 @@
         <v>87</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>494</v>
+        <v>453</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>19</v>
@@ -3896,24 +4016,22 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>880</v>
+        <v>839</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>865</v>
+        <v>824</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>495</v>
-      </c>
-      <c r="D65" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="D65" s="3"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>9</v>
@@ -3921,24 +4039,22 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>863</v>
+        <v>822</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>864</v>
+        <v>823</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="D67" s="3"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>498</v>
+        <v>457</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>30</v>
@@ -3952,7 +4068,7 @@
         <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>30</v>
@@ -3966,7 +4082,7 @@
         <v>91</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>500</v>
+        <v>459</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>9</v>
@@ -3974,13 +4090,13 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>861</v>
+        <v>820</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>862</v>
+        <v>821</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>501</v>
+        <v>460</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>23</v>
@@ -3988,13 +4104,13 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>859</v>
+        <v>818</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>860</v>
+        <v>819</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>502</v>
+        <v>461</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>23</v>
@@ -4008,7 +4124,7 @@
         <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>503</v>
+        <v>462</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>25</v>
@@ -4025,7 +4141,7 @@
         <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>504</v>
+        <v>463</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>19</v>
@@ -4039,18 +4155,16 @@
         <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="D75" s="3"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>506</v>
+        <v>465</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>19</v>
@@ -4061,7 +4175,7 @@
         <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>507</v>
+        <v>466</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>30</v>
@@ -4075,7 +4189,7 @@
         <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>508</v>
+        <v>467</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>30</v>
@@ -4092,21 +4206,19 @@
         <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>509</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>468</v>
+      </c>
+      <c r="D79" s="3"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>857</v>
+        <v>816</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>510</v>
+        <v>469</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>23</v>
@@ -4114,30 +4226,25 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>855</v>
+        <v>814</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>856</v>
+        <v>815</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>511</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E81" t="s">
-        <v>10</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>853</v>
+        <v>812</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>854</v>
+        <v>813</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>23</v>
@@ -4148,7 +4255,7 @@
         <v>99</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>513</v>
+        <v>472</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>24</v>
@@ -4162,7 +4269,7 @@
         <v>100</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>514</v>
+        <v>473</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>9</v>
@@ -4173,7 +4280,7 @@
         <v>101</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>515</v>
+        <v>474</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>23</v>
@@ -4187,7 +4294,7 @@
         <v>102</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>516</v>
+        <v>475</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>23</v>
@@ -4201,7 +4308,7 @@
         <v>103</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>517</v>
+        <v>476</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>10</v>
@@ -4218,7 +4325,7 @@
         <v>104</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>518</v>
+        <v>477</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>23</v>
@@ -4229,13 +4336,13 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>852</v>
+        <v>811</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>851</v>
+        <v>810</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>519</v>
+        <v>478</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>24</v>
@@ -4246,7 +4353,7 @@
         <v>105</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>520</v>
+        <v>479</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>19</v>
@@ -4257,7 +4364,7 @@
         <v>106</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>521</v>
+        <v>480</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>9</v>
@@ -4268,18 +4375,16 @@
         <v>107</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>522</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>25</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>523</v>
+        <v>482</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>30</v>
@@ -4293,7 +4398,7 @@
         <v>109</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>524</v>
+        <v>483</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>19</v>
@@ -4304,7 +4409,7 @@
         <v>110</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>525</v>
+        <v>484</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>23</v>
@@ -4315,7 +4420,7 @@
         <v>111</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>526</v>
+        <v>485</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>24</v>
@@ -4326,7 +4431,7 @@
         <v>112</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>527</v>
+        <v>486</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>25</v>
@@ -4337,7 +4442,7 @@
         <v>113</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>528</v>
+        <v>487</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>9</v>
@@ -4348,13 +4453,13 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>882</v>
+        <v>841</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>881</v>
+        <v>840</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>529</v>
+        <v>488</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>10</v>
@@ -4368,7 +4473,7 @@
         <v>114</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>530</v>
+        <v>489</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>19</v>
@@ -4379,7 +4484,7 @@
         <v>115</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>531</v>
+        <v>490</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>14</v>
@@ -4390,7 +4495,7 @@
         <v>116</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>532</v>
+        <v>491</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>23</v>
@@ -4404,7 +4509,7 @@
         <v>117</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>533</v>
+        <v>492</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>10</v>
@@ -4421,7 +4526,7 @@
         <v>118</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>534</v>
+        <v>493</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>23</v>
@@ -4438,7 +4543,7 @@
         <v>119</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>535</v>
+        <v>494</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>24</v>
@@ -4452,7 +4557,7 @@
         <v>120</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>536</v>
+        <v>495</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>19</v>
@@ -4463,7 +4568,7 @@
         <v>121</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>537</v>
+        <v>496</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>19</v>
@@ -4477,7 +4582,7 @@
         <v>122</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>538</v>
+        <v>497</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>19</v>
@@ -4491,7 +4596,7 @@
         <v>123</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>539</v>
+        <v>498</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>19</v>
@@ -4502,7 +4607,7 @@
         <v>124</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>540</v>
+        <v>499</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>10</v>
@@ -4516,7 +4621,7 @@
         <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>541</v>
+        <v>500</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>19</v>
@@ -4527,29 +4632,25 @@
         <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>542</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>501</v>
+      </c>
+      <c r="D112" s="3"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>543</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>23</v>
-      </c>
+        <v>502</v>
+      </c>
+      <c r="D113" s="3"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>544</v>
+        <v>503</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>24</v>
@@ -4560,7 +4661,7 @@
         <v>129</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>545</v>
+        <v>504</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>24</v>
@@ -4571,7 +4672,7 @@
         <v>130</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>546</v>
+        <v>505</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>19</v>
@@ -4588,7 +4689,7 @@
         <v>131</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>547</v>
+        <v>506</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>19</v>
@@ -4599,7 +4700,7 @@
         <v>132</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>548</v>
+        <v>507</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>23</v>
@@ -4613,18 +4714,16 @@
         <v>133</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>549</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>9</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="D119" s="3"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>550</v>
+        <v>509</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>23</v>
@@ -4638,7 +4737,7 @@
         <v>135</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>551</v>
+        <v>510</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>9</v>
@@ -4649,7 +4748,7 @@
         <v>136</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>552</v>
+        <v>511</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>9</v>
@@ -4660,7 +4759,7 @@
         <v>137</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>553</v>
+        <v>512</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>19</v>
@@ -4674,7 +4773,7 @@
         <v>138</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>554</v>
+        <v>513</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>19</v>
@@ -4688,7 +4787,7 @@
         <v>139</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>555</v>
+        <v>514</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>23</v>
@@ -4702,7 +4801,7 @@
         <v>140</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>556</v>
+        <v>515</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>25</v>
@@ -4716,7 +4815,7 @@
         <v>141</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>557</v>
+        <v>516</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>19</v>
@@ -4727,7 +4826,7 @@
         <v>142</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>558</v>
+        <v>517</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>19</v>
@@ -4738,7 +4837,7 @@
         <v>143</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>559</v>
+        <v>518</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>19</v>
@@ -4752,40 +4851,34 @@
         <v>144</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>560</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>561</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>146</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>563</v>
+        <v>522</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>24</v>
@@ -4799,7 +4892,7 @@
         <v>148</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>564</v>
+        <v>523</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>9</v>
@@ -4810,7 +4903,7 @@
         <v>149</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>565</v>
+        <v>524</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>9</v>
@@ -4824,7 +4917,7 @@
         <v>150</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>566</v>
+        <v>525</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>19</v>
@@ -4838,7 +4931,7 @@
         <v>151</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>567</v>
+        <v>526</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>9</v>
@@ -4849,7 +4942,7 @@
         <v>152</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>568</v>
+        <v>527</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>10</v>
@@ -4860,18 +4953,16 @@
         <v>153</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>569</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="D139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>154</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>570</v>
+        <v>529</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>23</v>
@@ -4888,7 +4979,7 @@
         <v>155</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>571</v>
+        <v>530</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>23</v>
@@ -4905,7 +4996,7 @@
         <v>156</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>572</v>
+        <v>531</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>9</v>
@@ -4916,7 +5007,7 @@
         <v>157</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>573</v>
+        <v>532</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>24</v>
@@ -4927,10 +5018,13 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>158</v>
+        <v>843</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>842</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>574</v>
+        <v>533</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>24</v>
@@ -4938,10 +5032,10 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>575</v>
+        <v>534</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>9</v>
@@ -4949,10 +5043,10 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>576</v>
+        <v>535</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>24</v>
@@ -4963,10 +5057,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>577</v>
+        <v>536</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>24</v>
@@ -4977,10 +5071,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>578</v>
+        <v>537</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>9</v>
@@ -4988,10 +5082,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>579</v>
+        <v>538</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>9</v>
@@ -5005,10 +5099,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>580</v>
+        <v>539</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>24</v>
@@ -5019,10 +5113,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>581</v>
+        <v>540</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>19</v>
@@ -5030,10 +5124,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>582</v>
+        <v>541</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>19</v>
@@ -5041,10 +5135,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>583</v>
+        <v>542</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>19</v>
@@ -5052,21 +5146,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>584</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="D154" s="3"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>585</v>
+        <v>544</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>9</v>
@@ -5074,10 +5166,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>586</v>
+        <v>545</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>24</v>
@@ -5085,10 +5177,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>587</v>
+        <v>546</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>9</v>
@@ -5099,10 +5191,10 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>588</v>
+        <v>547</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>9</v>
@@ -5110,10 +5202,10 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>589</v>
+        <v>548</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>24</v>
@@ -5124,10 +5216,13 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>174</v>
+        <v>844</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>845</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>590</v>
+        <v>549</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>24</v>
@@ -5141,7 +5236,7 @@
         <v>9</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>591</v>
+        <v>550</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>9</v>
@@ -5149,10 +5244,10 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>592</v>
+        <v>551</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>23</v>
@@ -5163,38 +5258,30 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>593</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="D163" s="3"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>594</v>
+        <v>553</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E164" t="s">
-        <v>9</v>
-      </c>
-      <c r="F164" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>595</v>
+        <v>554</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>23</v>
@@ -5202,10 +5289,10 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>596</v>
+        <v>555</v>
       </c>
       <c r="D166" s="4" t="s">
         <v>14</v>
@@ -5213,10 +5300,10 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>597</v>
+        <v>556</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>14</v>
@@ -5227,10 +5314,10 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>598</v>
+        <v>557</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>9</v>
@@ -5238,10 +5325,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>599</v>
+        <v>558</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>24</v>
@@ -5249,10 +5336,10 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>600</v>
+        <v>559</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>24</v>
@@ -5260,10 +5347,10 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>601</v>
+        <v>560</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>23</v>
@@ -5271,10 +5358,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>602</v>
+        <v>561</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>24</v>
@@ -5285,10 +5372,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>603</v>
+        <v>562</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>10</v>
@@ -5302,10 +5389,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>604</v>
+        <v>563</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>9</v>
@@ -5313,10 +5400,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>605</v>
+        <v>564</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>9</v>
@@ -5327,29 +5414,27 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>606</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="D176" s="3"/>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>607</v>
+        <v>566</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>608</v>
+        <v>567</v>
       </c>
       <c r="D178" s="2" t="s">
         <v>25</v>
@@ -5360,10 +5445,10 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>609</v>
+        <v>568</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>23</v>
@@ -5377,10 +5462,10 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>610</v>
+        <v>569</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>30</v>
@@ -5391,10 +5476,10 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>611</v>
+        <v>570</v>
       </c>
       <c r="D181" s="4" t="s">
         <v>14</v>
@@ -5402,10 +5487,13 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>195</v>
+        <v>846</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>847</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>24</v>
@@ -5416,10 +5504,13 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>196</v>
+        <v>848</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>849</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>30</v>
@@ -5430,10 +5521,10 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>614</v>
+        <v>573</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>24</v>
@@ -5441,10 +5532,10 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>615</v>
+        <v>574</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>23</v>
@@ -5452,10 +5543,10 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>616</v>
+        <v>575</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>10</v>
@@ -5463,10 +5554,13 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>200</v>
+        <v>850</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>851</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>617</v>
+        <v>576</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>24</v>
@@ -5477,10 +5571,10 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>618</v>
+        <v>577</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>24</v>
@@ -5491,10 +5585,13 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>202</v>
+        <v>852</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>853</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>619</v>
+        <v>578</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>24</v>
@@ -5505,35 +5602,28 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>620</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E190" t="s">
-        <v>25</v>
-      </c>
+        <v>579</v>
+      </c>
+      <c r="D190" s="3"/>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>621</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>580</v>
+      </c>
+      <c r="D191" s="3"/>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>622</v>
+        <v>581</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>9</v>
@@ -5541,10 +5631,10 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>19</v>
@@ -5552,10 +5642,10 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>624</v>
+        <v>583</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>19</v>
@@ -5563,10 +5653,13 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>208</v>
+        <v>854</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>855</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>625</v>
+        <v>584</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>23</v>
@@ -5574,10 +5667,10 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>626</v>
+        <v>585</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>23</v>
@@ -5585,10 +5678,10 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>627</v>
+        <v>586</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>23</v>
@@ -5599,10 +5692,13 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>211</v>
+        <v>856</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>857</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>628</v>
+        <v>587</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>24</v>
@@ -5613,21 +5709,19 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>629</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>588</v>
+      </c>
+      <c r="D199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>630</v>
+        <v>589</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>24</v>
@@ -5635,10 +5729,10 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>631</v>
+        <v>590</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>9</v>
@@ -5646,10 +5740,10 @@
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>632</v>
+        <v>591</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>9</v>
@@ -5657,10 +5751,10 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>633</v>
+        <v>592</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>24</v>
@@ -5668,10 +5762,10 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>634</v>
+        <v>593</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>24</v>
@@ -5679,10 +5773,10 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>635</v>
+        <v>594</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>19</v>
@@ -5693,10 +5787,10 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>636</v>
+        <v>595</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>24</v>
@@ -5704,10 +5798,10 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>637</v>
+        <v>596</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>14</v>
@@ -5715,10 +5809,13 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>221</v>
+        <v>858</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>859</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>638</v>
+        <v>597</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>24</v>
@@ -5726,10 +5823,13 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>222</v>
+        <v>860</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>861</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>639</v>
+        <v>598</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>24</v>
@@ -5737,10 +5837,10 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>640</v>
+        <v>599</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>24</v>
@@ -5748,10 +5848,10 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>641</v>
+        <v>600</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>30</v>
@@ -5765,10 +5865,10 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>642</v>
+        <v>601</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>24</v>
@@ -5776,10 +5876,10 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>643</v>
+        <v>602</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>24</v>
@@ -5787,10 +5887,10 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>644</v>
+        <v>603</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>9</v>
@@ -5798,10 +5898,10 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>645</v>
+        <v>604</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>30</v>
@@ -5812,10 +5912,10 @@
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>646</v>
+        <v>605</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>14</v>
@@ -5823,10 +5923,10 @@
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>647</v>
+        <v>606</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>10</v>
@@ -5837,10 +5937,13 @@
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>231</v>
+        <v>862</v>
+      </c>
+      <c r="B218" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>648</v>
+        <v>607</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>23</v>
@@ -5848,10 +5951,13 @@
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>232</v>
+        <v>864</v>
+      </c>
+      <c r="B219" s="2" t="s">
+        <v>865</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>649</v>
+        <v>608</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>23</v>
@@ -5859,10 +5965,13 @@
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>233</v>
+        <v>866</v>
+      </c>
+      <c r="B220" s="2" t="s">
+        <v>867</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>650</v>
+        <v>609</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>23</v>
@@ -5873,10 +5982,10 @@
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>651</v>
+        <v>610</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>10</v>
@@ -5884,10 +5993,13 @@
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>235</v>
+        <v>868</v>
+      </c>
+      <c r="B222" s="4" t="s">
+        <v>869</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>652</v>
+        <v>611</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>23</v>
@@ -5895,10 +6007,10 @@
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>653</v>
+        <v>612</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>24</v>
@@ -5906,10 +6018,10 @@
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>654</v>
+        <v>613</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>23</v>
@@ -5920,10 +6032,10 @@
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>655</v>
+        <v>614</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>24</v>
@@ -5931,10 +6043,13 @@
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>239</v>
+        <v>870</v>
+      </c>
+      <c r="B226" s="2" t="s">
+        <v>871</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>656</v>
+        <v>615</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>24</v>
@@ -5942,10 +6057,10 @@
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>657</v>
+        <v>616</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>23</v>
@@ -5953,10 +6068,10 @@
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>658</v>
+        <v>617</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>30</v>
@@ -5967,10 +6082,10 @@
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>659</v>
+        <v>618</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>30</v>
@@ -5981,10 +6096,10 @@
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>660</v>
+        <v>619</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>14</v>
@@ -5992,10 +6107,10 @@
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>661</v>
+        <v>620</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>14</v>
@@ -6003,10 +6118,10 @@
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>662</v>
+        <v>621</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>10</v>
@@ -6014,10 +6129,10 @@
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>663</v>
+        <v>622</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>24</v>
@@ -6025,10 +6140,10 @@
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>664</v>
+        <v>623</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>24</v>
@@ -6036,10 +6151,10 @@
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>665</v>
+        <v>624</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>23</v>
@@ -6050,10 +6165,13 @@
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>249</v>
+        <v>872</v>
+      </c>
+      <c r="B236" s="2" t="s">
+        <v>873</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>666</v>
+        <v>625</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>23</v>
@@ -6061,10 +6179,10 @@
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>667</v>
+        <v>626</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>23</v>
@@ -6072,10 +6190,10 @@
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>668</v>
+        <v>627</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>23</v>
@@ -6089,10 +6207,10 @@
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>669</v>
+        <v>628</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>24</v>
@@ -6100,10 +6218,10 @@
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>670</v>
+        <v>629</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>19</v>
@@ -6111,10 +6229,10 @@
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>671</v>
+        <v>630</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>24</v>
@@ -6125,10 +6243,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>672</v>
+        <v>631</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>19</v>
@@ -6139,10 +6257,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>673</v>
+        <v>632</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>30</v>
@@ -6153,10 +6271,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>674</v>
+        <v>633</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>24</v>
@@ -6164,21 +6282,19 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>675</v>
-      </c>
-      <c r="D245" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>634</v>
+      </c>
+      <c r="D245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>676</v>
+        <v>635</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>19</v>
@@ -6186,10 +6302,10 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>677</v>
+        <v>636</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>19</v>
@@ -6197,10 +6313,10 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>678</v>
+        <v>637</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>9</v>
@@ -6208,10 +6324,10 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>679</v>
+        <v>638</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>19</v>
@@ -6219,10 +6335,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>680</v>
+        <v>639</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>24</v>
@@ -6230,10 +6346,10 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>681</v>
+        <v>640</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>24</v>
@@ -6241,10 +6357,13 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>265</v>
+        <v>874</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>875</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>682</v>
+        <v>641</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>24</v>
@@ -6252,10 +6371,10 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>683</v>
+        <v>642</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>24</v>
@@ -6263,10 +6382,10 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>684</v>
+        <v>643</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>9</v>
@@ -6274,10 +6393,10 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>685</v>
+        <v>644</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>9</v>
@@ -6285,54 +6404,60 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>686</v>
+        <v>645</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>270</v>
+        <v>876</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>877</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>687</v>
+        <v>646</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>271</v>
+        <v>878</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>879</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>688</v>
+        <v>647</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>689</v>
+        <v>648</v>
       </c>
       <c r="D259" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>690</v>
+        <v>649</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>24</v>
@@ -6341,12 +6466,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>691</v>
+        <v>650</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>23</v>
@@ -6355,45 +6480,45 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>275</v>
+        <v>256</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>692</v>
+        <v>651</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>276</v>
+        <v>257</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>693</v>
+        <v>652</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>277</v>
+        <v>258</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>694</v>
+        <v>653</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>695</v>
+        <v>654</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>10</v>
@@ -6402,56 +6527,56 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>696</v>
+        <v>655</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>280</v>
+        <v>261</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>698</v>
+        <v>657</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>699</v>
+        <v>658</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>700</v>
+        <v>659</v>
       </c>
       <c r="D270" s="3" t="s">
         <v>24</v>
@@ -6459,16 +6584,13 @@
       <c r="E270" t="s">
         <v>19</v>
       </c>
-      <c r="F270" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>701</v>
+        <v>660</v>
       </c>
       <c r="D271" s="3" t="s">
         <v>24</v>
@@ -6476,16 +6598,13 @@
       <c r="E271" t="s">
         <v>19</v>
       </c>
-      <c r="F271" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>702</v>
+        <v>661</v>
       </c>
       <c r="D272" s="3" t="s">
         <v>24</v>
@@ -6493,33 +6612,27 @@
       <c r="E272" t="s">
         <v>19</v>
       </c>
-      <c r="F272" t="s">
-        <v>10</v>
-      </c>
-      <c r="G272" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>703</v>
+        <v>662</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E273" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>287</v>
+        <v>880</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>881</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>704</v>
+        <v>663</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>23</v>
@@ -6527,10 +6640,10 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>705</v>
+        <v>664</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>24</v>
@@ -6538,10 +6651,10 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>289</v>
+        <v>269</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>706</v>
+        <v>665</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>14</v>
@@ -6549,10 +6662,10 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>290</v>
+        <v>270</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>707</v>
+        <v>666</v>
       </c>
       <c r="D277" s="2" t="s">
         <v>23</v>
@@ -6563,10 +6676,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>708</v>
+        <v>667</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>25</v>
@@ -6574,10 +6687,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>292</v>
+        <v>272</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>709</v>
+        <v>668</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>30</v>
@@ -6588,10 +6701,10 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>710</v>
+        <v>669</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>23</v>
@@ -6599,10 +6712,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>294</v>
+        <v>274</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>711</v>
+        <v>670</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>25</v>
@@ -6610,10 +6723,10 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>712</v>
+        <v>671</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>24</v>
@@ -6621,10 +6734,10 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>713</v>
+        <v>672</v>
       </c>
       <c r="D283" s="2" t="s">
         <v>30</v>
@@ -6635,10 +6748,10 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>499</v>
+        <v>458</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>30</v>
@@ -6649,10 +6762,10 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>298</v>
+        <v>278</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>714</v>
+        <v>673</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>24</v>
@@ -6660,10 +6773,13 @@
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>299</v>
+        <v>882</v>
+      </c>
+      <c r="B286" s="2" t="s">
+        <v>883</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>715</v>
+        <v>674</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>24</v>
@@ -6671,10 +6787,13 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>300</v>
+        <v>884</v>
+      </c>
+      <c r="B287" s="2" t="s">
+        <v>885</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>716</v>
+        <v>675</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>24</v>
@@ -6682,10 +6801,10 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>301</v>
+        <v>279</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>717</v>
+        <v>676</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>24</v>
@@ -6693,10 +6812,10 @@
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>302</v>
+        <v>280</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>718</v>
+        <v>677</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>9</v>
@@ -6704,10 +6823,10 @@
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>303</v>
+        <v>281</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>719</v>
+        <v>678</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>24</v>
@@ -6715,10 +6834,10 @@
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>720</v>
+        <v>679</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>30</v>
@@ -6726,21 +6845,19 @@
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>305</v>
+        <v>283</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="D292" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>680</v>
+      </c>
+      <c r="D292" s="3"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>306</v>
+        <v>284</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>722</v>
+        <v>681</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>24</v>
@@ -6748,10 +6865,10 @@
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>723</v>
+        <v>682</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>9</v>
@@ -6765,10 +6882,10 @@
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>724</v>
+        <v>683</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>9</v>
@@ -6782,10 +6899,10 @@
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>309</v>
+        <v>287</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>725</v>
+        <v>684</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>19</v>
@@ -6793,10 +6910,10 @@
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>310</v>
+        <v>288</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>726</v>
+        <v>685</v>
       </c>
       <c r="D297" s="2" t="s">
         <v>24</v>
@@ -6804,10 +6921,10 @@
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>311</v>
+        <v>289</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>727</v>
+        <v>686</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>10</v>
@@ -6818,18 +6935,21 @@
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>312</v>
+        <v>290</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>728</v>
+        <v>687</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>313</v>
+        <v>886</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>887</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>729</v>
+        <v>688</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>23</v>
@@ -6837,10 +6957,10 @@
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>730</v>
+        <v>689</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>19</v>
@@ -6848,21 +6968,19 @@
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="D302" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="D302" s="3"/>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>732</v>
+        <v>691</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>9</v>
@@ -6870,10 +6988,10 @@
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>733</v>
+        <v>692</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>19</v>
@@ -6882,12 +7000,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>734</v>
+        <v>693</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>19</v>
@@ -6896,23 +7014,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="D306" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>736</v>
+        <v>695</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>9</v>
@@ -6921,1190 +7036,1180 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>737</v>
+        <v>696</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>738</v>
+        <v>697</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>739</v>
+        <v>698</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>740</v>
+        <v>699</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>741</v>
+        <v>700</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>742</v>
+        <v>701</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E313" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>745</v>
+        <v>704</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E316" t="s">
-        <v>23</v>
-      </c>
-      <c r="F316" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>746</v>
+        <v>705</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E317" t="s">
         <v>14</v>
       </c>
-      <c r="F317" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>747</v>
+        <v>706</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E318" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>748</v>
+        <v>707</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="E319" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>749</v>
+        <v>708</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E320" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>334</v>
+        <v>888</v>
+      </c>
+      <c r="B321" s="2" t="s">
+        <v>889</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="D321" s="4" t="s">
+        <v>709</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E321" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>751</v>
-      </c>
-      <c r="D322" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E322" s="4" t="s">
-        <v>9</v>
+        <v>710</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="D323" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E323" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="D323" s="3"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>753</v>
-      </c>
-      <c r="D324" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="D324" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E324" s="4" t="s">
+      <c r="E324" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="D325" s="4" t="s">
-        <v>10</v>
+        <v>713</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D326" s="4" t="s">
-        <v>10</v>
+        <v>714</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="D327" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="D327" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="D328" s="4" t="s">
-        <v>10</v>
+        <v>716</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>758</v>
-      </c>
-      <c r="D329" s="4" t="s">
+        <v>717</v>
+      </c>
+      <c r="D329" s="2" t="s">
         <v>19</v>
+      </c>
+      <c r="E329" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="D330" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="D330" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>760</v>
-      </c>
-      <c r="D331" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E331" s="4" t="s">
-        <v>10</v>
+        <v>719</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>345</v>
+        <v>890</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>891</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D332" s="4" t="s">
+        <v>720</v>
+      </c>
+      <c r="D332" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>762</v>
-      </c>
-      <c r="D333" s="4" t="s">
-        <v>23</v>
+        <v>721</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="D334" s="4" t="s">
-        <v>19</v>
+        <v>722</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>764</v>
-      </c>
-      <c r="D335" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="D335" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A338" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E338" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>729</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E341" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E342" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E343" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>895</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E345" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="D346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>897</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A349" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>899</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E349" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>739</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E353" t="s">
+        <v>10</v>
+      </c>
+      <c r="F353" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="C355" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A356" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>743</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E356" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A357" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A358" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C358" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E358" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A359" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="B359" s="2" t="s">
+        <v>901</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A360" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C360" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E361" t="s">
+        <v>19</v>
+      </c>
+      <c r="F361" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A362" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C362" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A363" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A364" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C364" s="2" t="s">
+        <v>751</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A365" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A366" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="C336" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D336" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A337" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C337" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D337" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A338" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C338" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D338" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A339" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C339" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="D339" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A340" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C340" s="2" t="s">
-        <v>769</v>
-      </c>
-      <c r="D340" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A341" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C341" s="2" t="s">
-        <v>770</v>
-      </c>
-      <c r="D341" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A342" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="C342" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="D342" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E342" s="4" t="s">
+      <c r="C366" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A367" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B367" s="2" t="s">
+        <v>903</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="D367" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F342" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A343" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C343" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="D343" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E343" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A344" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C344" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="D344" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A345" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C345" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="D345" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A346" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="C346" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="D346" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E346" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A347" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C347" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="D347" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E347" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A348" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C348" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="D348" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E348" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A349" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C349" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D349" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E349" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A350" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="C350" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D350" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A351" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C351" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="D351" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A352" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C352" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="D352" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A353" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C353" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="D353" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E353" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A354" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C354" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="D354" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A355" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C355" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="D355" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A356" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="C356" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D356" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A357" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C357" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="D357" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A358" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C358" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="D358" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A359" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C359" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D359" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E359" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A360" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="C360" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="D360" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A361" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C361" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="D361" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E361" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A362" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C362" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="D362" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E362" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A363" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C363" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="D363" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E363" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A364" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C364" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="D364" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E364" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A365" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C365" s="2" t="s">
-        <v>793</v>
-      </c>
-      <c r="D365" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E365" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A366" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C366" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="D366" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E366" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A367" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C367" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="D367" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E367" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>381</v>
+        <v>904</v>
+      </c>
+      <c r="B368" s="2" t="s">
+        <v>905</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="D368" s="4" t="s">
-        <v>10</v>
+        <v>755</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="D369" s="4" t="s">
-        <v>23</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D369" s="3"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="D370" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E370" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>756</v>
+      </c>
+      <c r="D370" s="3"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="D371" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E371" s="4" t="s">
-        <v>23</v>
+        <v>757</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>385</v>
+        <v>353</v>
       </c>
       <c r="C372" s="2" t="s">
-        <v>799</v>
-      </c>
-      <c r="D372" s="4" t="s">
-        <v>19</v>
+        <v>758</v>
+      </c>
+      <c r="D372" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>386</v>
+        <v>906</v>
+      </c>
+      <c r="B373" s="2" t="s">
+        <v>907</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>800</v>
-      </c>
-      <c r="D373" s="4" t="s">
-        <v>23</v>
+        <v>759</v>
+      </c>
+      <c r="D373" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>387</v>
+        <v>354</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>801</v>
-      </c>
-      <c r="D374" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="D374" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>388</v>
+        <v>355</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="D375" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E375" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="D375" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>389</v>
+        <v>356</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D376" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E376" s="4" t="s">
+        <v>762</v>
+      </c>
+      <c r="D376" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E376" t="s">
         <v>10</v>
+      </c>
+      <c r="F376" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="D377" s="4" t="s">
+        <v>763</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E377" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="D378" s="4" t="s">
+        <v>764</v>
+      </c>
+      <c r="D378" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>392</v>
+        <v>908</v>
+      </c>
+      <c r="B379" s="2" t="s">
+        <v>909</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D379" s="4" t="s">
-        <v>10</v>
+        <v>765</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="D380" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>766</v>
+      </c>
+      <c r="D380" s="3"/>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="D381" s="4" t="s">
+        <v>767</v>
+      </c>
+      <c r="D381" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>395</v>
+        <v>910</v>
+      </c>
+      <c r="B382" s="2" t="s">
+        <v>911</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>809</v>
-      </c>
-      <c r="D382" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E382" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="D382" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F382" s="4" t="s">
+      <c r="E382" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>396</v>
+        <v>361</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="D383" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>769</v>
+      </c>
+      <c r="D383" s="3"/>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>397</v>
+        <v>362</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>811</v>
-      </c>
-      <c r="D384" s="4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D384" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>398</v>
+        <v>363</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>812</v>
-      </c>
-      <c r="D385" s="4" t="s">
+        <v>771</v>
+      </c>
+      <c r="D385" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>399</v>
+        <v>364</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="D386" s="4" t="s">
-        <v>23</v>
+        <v>772</v>
+      </c>
+      <c r="D386" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>400</v>
+        <v>912</v>
+      </c>
+      <c r="B387" s="2" t="s">
+        <v>913</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>814</v>
-      </c>
-      <c r="D387" s="4" t="s">
-        <v>19</v>
+        <v>773</v>
+      </c>
+      <c r="D387" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>815</v>
-      </c>
-      <c r="D388" s="4" t="s">
+        <v>774</v>
+      </c>
+      <c r="D388" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D389" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="D389" s="3"/>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>403</v>
+        <v>914</v>
+      </c>
+      <c r="B390" s="2" t="s">
+        <v>915</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D390" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E390" s="4" t="s">
-        <v>10</v>
-      </c>
+        <v>776</v>
+      </c>
+      <c r="D390" s="3"/>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>404</v>
+        <v>367</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D391" s="4" t="s">
+        <v>777</v>
+      </c>
+      <c r="D391" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E391" s="4" t="s">
-        <v>25</v>
+      <c r="E391" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>405</v>
+        <v>368</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D392" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E392" s="4" t="s">
+        <v>778</v>
+      </c>
+      <c r="D392" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E392" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>406</v>
+        <v>369</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="D393" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E393" s="4" t="s">
-        <v>10</v>
+        <v>779</v>
+      </c>
+      <c r="D393" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E393" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>407</v>
+        <v>370</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="D394" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E394" s="4" t="s">
+        <v>780</v>
+      </c>
+      <c r="D394" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="E394" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>408</v>
+        <v>371</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="D395" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E395" s="4" t="s">
+        <v>781</v>
+      </c>
+      <c r="D395" s="2" t="s">
         <v>14</v>
+      </c>
+      <c r="E395" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>409</v>
+        <v>372</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="D396" s="4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D396" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>410</v>
+        <v>373</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="D397" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E397" s="4" t="s">
+        <v>783</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E397" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>411</v>
+        <v>916</v>
+      </c>
+      <c r="B398" s="2" t="s">
+        <v>917</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D398" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E398" s="4" t="s">
+        <v>784</v>
+      </c>
+      <c r="D398" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E398" t="s">
+        <v>23</v>
+      </c>
+      <c r="F398" t="s">
         <v>25</v>
-      </c>
-      <c r="F398" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>412</v>
+        <v>918</v>
+      </c>
+      <c r="B399" s="2" t="s">
+        <v>919</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="D399" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E399" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F399" s="4" t="s">
-        <v>23</v>
+        <v>785</v>
+      </c>
+      <c r="D399" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E399" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>413</v>
+        <v>374</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="D400" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E400" s="4" t="s">
-        <v>24</v>
+        <v>786</v>
+      </c>
+      <c r="D400" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>414</v>
+        <v>375</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D401" s="4" t="s">
+        <v>787</v>
+      </c>
+      <c r="D401" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>415</v>
+        <v>376</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="D402" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E402" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F402" s="4" t="s">
+        <v>788</v>
+      </c>
+      <c r="D402" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E402" t="s">
         <v>14</v>
+      </c>
+      <c r="F402" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.2">
@@ -8112,198 +8217,210 @@
         <v>10</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="D403" s="4" t="s">
+        <v>789</v>
+      </c>
+      <c r="D403" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="D404" s="4" t="s">
+        <v>790</v>
+      </c>
+      <c r="D404" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E404" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>417</v>
+        <v>378</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="D405" s="4" t="s">
+        <v>791</v>
+      </c>
+      <c r="D405" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E405" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>418</v>
+        <v>920</v>
+      </c>
+      <c r="B406" s="2" t="s">
+        <v>921</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>833</v>
-      </c>
-      <c r="D406" s="4" t="s">
+        <v>792</v>
+      </c>
+      <c r="D406" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E406" t="s">
         <v>10</v>
-      </c>
-      <c r="E406" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D407" s="4" t="s">
+        <v>793</v>
+      </c>
+      <c r="D407" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E407" t="s">
         <v>10</v>
-      </c>
-      <c r="E407" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="D408" s="4" t="s">
+        <v>794</v>
+      </c>
+      <c r="D408" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="E408" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D409" s="4" t="s">
+        <v>795</v>
+      </c>
+      <c r="D409" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E409" s="4" t="s">
+      <c r="E409" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="D410" s="4" t="s">
+        <v>796</v>
+      </c>
+      <c r="D410" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>838</v>
-      </c>
-      <c r="D411" s="4" t="s">
+        <v>797</v>
+      </c>
+      <c r="D411" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>424</v>
+        <v>922</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>923</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D412" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E412" s="4" t="s">
-        <v>23</v>
+        <v>798</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E412" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>425</v>
+        <v>384</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D413" s="4" t="s">
+        <v>799</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E413" t="s">
         <v>10</v>
       </c>
-      <c r="E413" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F413" s="4" t="s">
-        <v>23</v>
+      <c r="F413" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>426</v>
+        <v>385</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="D414" s="4" t="s">
-        <v>9</v>
+        <v>800</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E414" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>842</v>
-      </c>
-      <c r="D415" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E415" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>428</v>
+        <v>387</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="D416" s="4" t="s">
+        <v>802</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E416" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>429</v>
+        <v>388</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="D417" s="4" t="s">
-        <v>19</v>
+        <v>596</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>430</v>
+        <v>389</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="D418" s="4" t="s">
+        <v>803</v>
+      </c>
+      <c r="D418" s="2" t="s">
         <v>19</v>
       </c>
     </row>
@@ -8371,19 +8488,19 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>845</v>
+        <v>804</v>
       </c>
       <c r="B2" t="s">
-        <v>848</v>
+        <v>807</v>
       </c>
       <c r="C2" t="s">
-        <v>846</v>
+        <v>805</v>
       </c>
       <c r="D2" t="s">
-        <v>849</v>
+        <v>808</v>
       </c>
       <c r="E2" t="s">
-        <v>847</v>
+        <v>806</v>
       </c>
       <c r="G2" t="s">
         <v>24</v>
